--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="草稿" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="184">
   <si>
     <t>省份</t>
   </si>
@@ -573,6 +573,10 @@
   </si>
   <si>
     <t>舒洁</t>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6542,8 +6546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7036,10 +7040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7051,7 +7055,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:8" ht="14.25">
       <c r="A1" s="40" t="s">
         <v>47</v>
       </c>
@@ -7070,8 +7074,11 @@
       <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
+      <c r="G1" s="40" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="46">
         <v>40909</v>
       </c>
@@ -7090,8 +7097,15 @@
       <c r="F2" s="49">
         <v>0</v>
       </c>
+      <c r="G2">
+        <f>B2/SUM($B$2:$B$13)</f>
+        <v>2.6219065156207609E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.6219065156207609E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="50">
         <v>40940</v>
       </c>
@@ -7110,8 +7124,15 @@
       <c r="F3" s="53">
         <v>0</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:H12" si="0">B3/SUM($B$2:$B$13)</f>
+        <v>4.4570071298984951E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.4570071298984951E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="46">
         <v>40969</v>
       </c>
@@ -7130,8 +7151,15 @@
       <c r="F4" s="49">
         <v>0</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6.2183787695047996E-2</v>
+      </c>
+      <c r="H4">
+        <v>6.2183787695047996E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="50">
         <v>41000</v>
       </c>
@@ -7150,8 +7178,15 @@
       <c r="F5" s="52">
         <v>1.5391999999999999</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>5.9197310482461275E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.9197310482461275E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="46">
         <v>41030</v>
       </c>
@@ -7170,8 +7205,15 @@
       <c r="F6" s="48">
         <v>1.1587000000000001</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.7197282609959941E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.7197282609959941E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="50">
         <v>41061</v>
       </c>
@@ -7190,8 +7232,15 @@
       <c r="F7" s="52">
         <v>1.0079</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>7.5442030395983808E-2</v>
+      </c>
+      <c r="H7">
+        <v>7.5442030395983808E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="46">
         <v>41091</v>
       </c>
@@ -7210,8 +7259,15 @@
       <c r="F8" s="48">
         <v>0.71179999999999999</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>8.0922424851504082E-2</v>
+      </c>
+      <c r="H8">
+        <v>8.0922424851504082E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="50">
         <v>41122</v>
       </c>
@@ -7230,8 +7286,15 @@
       <c r="F9" s="52">
         <v>1.6954</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.10320751663257496</v>
+      </c>
+      <c r="H9">
+        <v>0.10320751663257496</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" s="46">
         <v>41153</v>
       </c>
@@ -7250,8 +7313,15 @@
       <c r="F10" s="48">
         <v>1.6362000000000001</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.10288212724164106</v>
+      </c>
+      <c r="H10">
+        <v>0.10288212724164106</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
+    <row r="11" spans="1:8" ht="14.25">
       <c r="A11" s="50">
         <v>41183</v>
       </c>
@@ -7270,8 +7340,15 @@
       <c r="F11" s="52">
         <v>1.5249999999999999</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.10013669855077315</v>
+      </c>
+      <c r="H11">
+        <v>0.10013669855077315</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
+    <row r="12" spans="1:8" ht="14.25">
       <c r="A12" s="46">
         <v>41214</v>
       </c>
@@ -7290,8 +7367,15 @@
       <c r="F12" s="48">
         <v>1.3927</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.14396920676666197</v>
+      </c>
+      <c r="H12">
+        <v>0.14396920676666197</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
+    <row r="13" spans="1:8" ht="14.25">
       <c r="A13" s="50">
         <v>41244</v>
       </c>
@@ -7310,8 +7394,15 @@
       <c r="F13" s="52">
         <v>1.226</v>
       </c>
+      <c r="G13">
+        <f>B13/SUM($B$2:$B$13)</f>
+        <v>0.13407247831819918</v>
+      </c>
+      <c r="H13">
+        <v>0.13407247831819918</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
+    <row r="14" spans="1:8" ht="14.25">
       <c r="A14" s="46">
         <v>41275</v>
       </c>
@@ -7330,8 +7421,15 @@
       <c r="F14" s="48">
         <v>4.1359000000000004</v>
       </c>
+      <c r="G14">
+        <f>B14/SUM($B$14:$B$25)</f>
+        <v>5.61653562806309E-2</v>
+      </c>
+      <c r="H14">
+        <v>5.61653562806309E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25">
+    <row r="15" spans="1:8" ht="14.25">
       <c r="A15" s="50">
         <v>41306</v>
       </c>
@@ -7350,8 +7448,15 @@
       <c r="F15" s="52">
         <v>1.1629</v>
       </c>
+      <c r="G15">
+        <f t="shared" ref="G15:H25" si="1">B15/SUM($B$14:$B$25)</f>
+        <v>4.0207057671722279E-2</v>
+      </c>
+      <c r="H15">
+        <v>4.0207057671722279E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:8" ht="14.25">
       <c r="A16" s="46">
         <v>41334</v>
       </c>
@@ -7370,8 +7475,15 @@
       <c r="F16" s="48">
         <v>1.5908</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>6.7196073905248968E-2</v>
+      </c>
+      <c r="H16">
+        <v>6.7196073905248968E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25">
+    <row r="17" spans="1:8" ht="14.25">
       <c r="A17" s="50">
         <v>41365</v>
       </c>
@@ -7390,8 +7502,15 @@
       <c r="F17" s="52">
         <v>1.4599</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>6.0736093124113502E-2</v>
+      </c>
+      <c r="H17">
+        <v>6.0736093124113502E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:8" ht="14.25">
       <c r="A18" s="46">
         <v>41395</v>
       </c>
@@ -7410,8 +7529,15 @@
       <c r="F18" s="48">
         <v>1.6212</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>7.3465255373603489E-2</v>
+      </c>
+      <c r="H18">
+        <v>7.3465255373603489E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25">
+    <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="50">
         <v>41426</v>
       </c>
@@ -7430,8 +7556,15 @@
       <c r="F19" s="52">
         <v>1.5730999999999999</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>8.0966429807923748E-2</v>
+      </c>
+      <c r="H19">
+        <v>8.0966429807923748E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25">
+    <row r="20" spans="1:8" ht="14.25">
       <c r="A20" s="46">
         <v>41456</v>
       </c>
@@ -7450,8 +7583,15 @@
       <c r="F20" s="48">
         <v>1.6963999999999999</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>9.1010425697935798E-2</v>
+      </c>
+      <c r="H20">
+        <v>9.1010425697935798E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25">
+    <row r="21" spans="1:8" ht="14.25">
       <c r="A21" s="50">
         <v>41487</v>
       </c>
@@ -7470,8 +7610,15 @@
       <c r="F21" s="52">
         <v>1.288</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>9.8492647766155086E-2</v>
+      </c>
+      <c r="H21">
+        <v>9.8492647766155086E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25">
+    <row r="22" spans="1:8" ht="14.25">
       <c r="A22" s="46">
         <v>41518</v>
       </c>
@@ -7490,8 +7637,15 @@
       <c r="F22" s="48">
         <v>1.1067</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>9.0401103890818027E-2</v>
+      </c>
+      <c r="H22">
+        <v>9.0401103890818027E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25">
+    <row r="23" spans="1:8" ht="14.25">
       <c r="A23" s="50">
         <v>41548</v>
       </c>
@@ -7510,8 +7664,15 @@
       <c r="F23" s="52">
         <v>1.2972999999999999</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>9.5951474519326965E-2</v>
+      </c>
+      <c r="H23">
+        <v>9.5951474519326965E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25">
+    <row r="24" spans="1:8" ht="14.25">
       <c r="A24" s="46">
         <v>41579</v>
       </c>
@@ -7530,8 +7691,15 @@
       <c r="F24" s="48">
         <v>1.1474</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.12894604593659406</v>
+      </c>
+      <c r="H24">
+        <v>0.12894604593659406</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25">
+    <row r="25" spans="1:8" ht="14.25">
       <c r="A25" s="50">
         <v>41609</v>
       </c>
@@ -7550,8 +7718,15 @@
       <c r="F25" s="52">
         <v>1.0826</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.1164620360259272</v>
+      </c>
+      <c r="H25">
+        <v>0.1164620360259272</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25">
+    <row r="26" spans="1:8" ht="14.25">
       <c r="A26" s="46">
         <v>41640</v>
       </c>
@@ -7570,8 +7745,15 @@
       <c r="F26" s="48">
         <v>0.5716</v>
       </c>
+      <c r="G26">
+        <f>B26/SUM($B$26:$B$37)</f>
+        <v>3.5479504676415224E-2</v>
+      </c>
+      <c r="H26">
+        <v>3.5479504676415224E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25">
+    <row r="27" spans="1:8" ht="14.25">
       <c r="A27" s="50">
         <v>41671</v>
       </c>
@@ -7590,8 +7772,15 @@
       <c r="F27" s="53">
         <v>1.52</v>
       </c>
+      <c r="G27">
+        <f t="shared" ref="G27:H37" si="2">B27/SUM($B$26:$B$37)</f>
+        <v>4.0725290144164851E-2</v>
+      </c>
+      <c r="H27">
+        <v>4.0725290144164851E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25">
+    <row r="28" spans="1:8" ht="14.25">
       <c r="A28" s="46">
         <v>41699</v>
       </c>
@@ -7610,8 +7799,15 @@
       <c r="F28" s="48">
         <v>1.1067</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>5.6899284844954899E-2</v>
+      </c>
+      <c r="H28">
+        <v>5.6899284844954899E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25">
+    <row r="29" spans="1:8" ht="14.25">
       <c r="A29" s="50">
         <v>41730</v>
       </c>
@@ -7630,8 +7826,15 @@
       <c r="F29" s="52">
         <v>1.548</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>6.2204000753664571E-2</v>
+      </c>
+      <c r="H29">
+        <v>6.2204000753664571E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25">
+    <row r="30" spans="1:8" ht="14.25">
       <c r="A30" s="46">
         <v>41760</v>
       </c>
@@ -7650,8 +7853,15 @@
       <c r="F30" s="48">
         <v>1.4743999999999999</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>7.3065578927445529E-2</v>
+      </c>
+      <c r="H30">
+        <v>7.3065578927445529E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25">
+    <row r="31" spans="1:8" ht="14.25">
       <c r="A31" s="50">
         <v>41791</v>
       </c>
@@ -7670,8 +7880,15 @@
       <c r="F31" s="52">
         <v>1.4851000000000001</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>8.0874300959140638E-2</v>
+      </c>
+      <c r="H31">
+        <v>8.0874300959140638E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25">
+    <row r="32" spans="1:8" ht="14.25">
       <c r="A32" s="46">
         <v>41821</v>
       </c>
@@ -7690,8 +7907,15 @@
       <c r="F32" s="48">
         <v>1.3569</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>8.6219516428066412E-2</v>
+      </c>
+      <c r="H32">
+        <v>8.6219516428066412E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25">
+    <row r="33" spans="1:8" ht="14.25">
       <c r="A33" s="50">
         <v>41852</v>
       </c>
@@ -7710,8 +7934,15 @@
       <c r="F33" s="52">
         <v>1.3515999999999999</v>
       </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>9.3096579679330965E-2</v>
+      </c>
+      <c r="H33">
+        <v>9.3096579679330965E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25">
+    <row r="34" spans="1:8" ht="14.25">
       <c r="A34" s="46">
         <v>41883</v>
       </c>
@@ -7730,8 +7961,15 @@
       <c r="F34" s="48">
         <v>1.9091</v>
       </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0.10570717655694589</v>
+      </c>
+      <c r="H34">
+        <v>0.10570717655694589</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25">
+    <row r="35" spans="1:8" ht="14.25">
       <c r="A35" s="50">
         <v>41913</v>
       </c>
@@ -7750,8 +7988,15 @@
       <c r="F35" s="52">
         <v>1.956</v>
       </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.11400555598603804</v>
+      </c>
+      <c r="H35">
+        <v>0.11400555598603804</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25">
+    <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="46">
         <v>41944</v>
       </c>
@@ -7770,8 +8015,15 @@
       <c r="F36" s="48">
         <v>1.4633</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.12767012796205623</v>
+      </c>
+      <c r="H36">
+        <v>0.12767012796205623</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25">
+    <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="50">
         <v>41974</v>
       </c>
@@ -7790,8 +8042,15 @@
       <c r="F37" s="52">
         <v>1.6500999999999999</v>
       </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.12405308308177673</v>
+      </c>
+      <c r="H37">
+        <v>0.12405308308177673</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25">
+    <row r="38" spans="1:8" ht="14.25">
       <c r="A38" s="46">
         <v>42005</v>
       </c>
@@ -7810,8 +8069,15 @@
       <c r="F38" s="48">
         <v>2.6288</v>
       </c>
+      <c r="G38">
+        <f>B38/SUM($B$38:$B$49)</f>
+        <v>3.5461454307694797E-2</v>
+      </c>
+      <c r="H38">
+        <v>3.5461454307694797E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25">
+    <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="50">
         <v>42036</v>
       </c>
@@ -7830,8 +8096,15 @@
       <c r="F39" s="52">
         <v>0.72319999999999995</v>
       </c>
+      <c r="G39">
+        <f t="shared" ref="G39:H49" si="3">B39/SUM($B$38:$B$49)</f>
+        <v>1.9328611188615549E-2</v>
+      </c>
+      <c r="H39">
+        <v>1.9328611188615549E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25">
+    <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="46">
         <v>42064</v>
       </c>
@@ -7850,8 +8123,15 @@
       <c r="F40" s="48">
         <v>1.7972999999999999</v>
       </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>4.3837988144737258E-2</v>
+      </c>
+      <c r="H40">
+        <v>4.3837988144737258E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25">
+    <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="50">
         <v>42095</v>
       </c>
@@ -7870,8 +8150,15 @@
       <c r="F41" s="52">
         <v>1.4899</v>
       </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>4.2659009286557859E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.2659009286557859E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25">
+    <row r="42" spans="1:8" ht="14.25">
       <c r="A42" s="46">
         <v>42125</v>
       </c>
@@ -7890,8 +8177,15 @@
       <c r="F42" s="48">
         <v>3.5718000000000001</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>9.200431208192647E-2</v>
+      </c>
+      <c r="H42">
+        <v>9.200431208192647E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25">
+    <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="50">
         <v>42156</v>
       </c>
@@ -7910,8 +8204,15 @@
       <c r="F43" s="52">
         <v>3.8075000000000001</v>
       </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>0.10708759409671555</v>
+      </c>
+      <c r="H43">
+        <v>0.10708759409671555</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25">
+    <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="46">
         <v>42186</v>
       </c>
@@ -7930,8 +8231,15 @@
       <c r="F44" s="48">
         <v>1.3245</v>
       </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>5.5200114719636005E-2</v>
+      </c>
+      <c r="H44">
+        <v>5.5200114719636005E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25">
+    <row r="45" spans="1:8" ht="14.25">
       <c r="A45" s="50">
         <v>42217</v>
       </c>
@@ -7950,8 +8258,15 @@
       <c r="F45" s="52">
         <v>3.6406000000000001</v>
       </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0.11899242368205007</v>
+      </c>
+      <c r="H45">
+        <v>0.11899242368205007</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25">
+    <row r="46" spans="1:8" ht="14.25">
       <c r="A46" s="46">
         <v>42248</v>
       </c>
@@ -7970,8 +8285,15 @@
       <c r="F46" s="48">
         <v>3.4133</v>
       </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>0.12849315149330534</v>
+      </c>
+      <c r="H46">
+        <v>0.12849315149330534</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25">
+    <row r="47" spans="1:8" ht="14.25">
       <c r="A47" s="50">
         <v>42278</v>
       </c>
@@ -7990,8 +8312,15 @@
       <c r="F47" s="52">
         <v>3.2888999999999999</v>
       </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0.13467341982958578</v>
+      </c>
+      <c r="H47">
+        <v>0.13467341982958578</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25">
+    <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="46">
         <v>42309</v>
       </c>
@@ -8010,8 +8339,15 @@
       <c r="F48" s="48">
         <v>3.2403</v>
       </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>0.14910689812464462</v>
+      </c>
+      <c r="H48">
+        <v>0.14910689812464462</v>
+      </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25">
+    <row r="49" spans="1:8" ht="14.25">
       <c r="A49" s="50">
         <v>42339</v>
       </c>
@@ -8030,8 +8366,15 @@
       <c r="F49" s="52">
         <v>1.141</v>
       </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>7.3155023044530698E-2</v>
+      </c>
+      <c r="H49">
+        <v>7.3155023044530698E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25">
+    <row r="50" spans="1:8" ht="14.25">
       <c r="A50" s="46">
         <v>42370</v>
       </c>
@@ -8050,8 +8393,15 @@
       <c r="F50" s="48">
         <v>0.97460000000000002</v>
       </c>
+      <c r="G50">
+        <f>B50/SUM($B$50:$B$60)</f>
+        <v>6.634656414902794E-2</v>
+      </c>
+      <c r="H50">
+        <v>6.634656414902794E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25">
+    <row r="51" spans="1:8" ht="14.25">
       <c r="A51" s="50">
         <v>42401</v>
       </c>
@@ -8070,8 +8420,15 @@
       <c r="F51" s="52">
         <v>1.373</v>
       </c>
+      <c r="G51">
+        <f t="shared" ref="G51:H60" si="4">B51/SUM($B$50:$B$60)</f>
+        <v>4.3459995429147226E-2</v>
+      </c>
+      <c r="H51">
+        <v>4.3459995429147226E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25">
+    <row r="52" spans="1:8" ht="14.25">
       <c r="A52" s="46">
         <v>42430</v>
       </c>
@@ -8090,8 +8447,15 @@
       <c r="F52" s="48">
         <v>1.044</v>
       </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>8.4902173660543853E-2</v>
+      </c>
+      <c r="H52">
+        <v>8.4902173660543853E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25">
+    <row r="53" spans="1:8" ht="14.25">
       <c r="A53" s="50">
         <v>42461</v>
       </c>
@@ -8110,8 +8474,15 @@
       <c r="F53" s="52">
         <v>0.94199999999999995</v>
       </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>7.8495010660927886E-2</v>
+      </c>
+      <c r="H53">
+        <v>7.8495010660927886E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25">
+    <row r="54" spans="1:8" ht="14.25">
       <c r="A54" s="46">
         <v>42491</v>
       </c>
@@ -8130,8 +8501,15 @@
       <c r="F54" s="49">
         <v>0.08</v>
       </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>9.4152159219468054E-2</v>
+      </c>
+      <c r="H54">
+        <v>9.4152159219468054E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25">
+    <row r="55" spans="1:8" ht="14.25">
       <c r="A55" s="50">
         <v>42522</v>
       </c>
@@ -8150,8 +8528,15 @@
       <c r="F55" s="52">
         <v>-3.2399999999999998E-2</v>
       </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>9.8175783454225493E-2</v>
+      </c>
+      <c r="H55">
+        <v>9.8175783454225493E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25">
+    <row r="56" spans="1:8" ht="14.25">
       <c r="A56" s="46">
         <v>42552</v>
       </c>
@@ -8170,8 +8555,15 @@
       <c r="F56" s="48">
         <v>0.7873</v>
       </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>9.3480925985161556E-2</v>
+      </c>
+      <c r="H56">
+        <v>9.3480925985161556E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25">
+    <row r="57" spans="1:8" ht="14.25">
       <c r="A57" s="50">
         <v>42583</v>
       </c>
@@ -8190,8 +8582,15 @@
       <c r="F57" s="52">
         <v>-0.16300000000000001</v>
       </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>9.4372157218149025E-2</v>
+      </c>
+      <c r="H57">
+        <v>9.4372157218149025E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:6" ht="14.25">
+    <row r="58" spans="1:8" ht="14.25">
       <c r="A58" s="46">
         <v>42614</v>
       </c>
@@ -8210,8 +8609,15 @@
       <c r="F58" s="48">
         <v>-0.10349999999999999</v>
       </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>0.10914215103656158</v>
+      </c>
+      <c r="H58">
+        <v>0.10914215103656158</v>
+      </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25">
+    <row r="59" spans="1:8" ht="14.25">
       <c r="A59" s="50">
         <v>42644</v>
       </c>
@@ -8230,8 +8636,15 @@
       <c r="F59" s="52">
         <v>-0.14019999999999999</v>
       </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>0.10971088425445075</v>
+      </c>
+      <c r="H59">
+        <v>0.10971088425445075</v>
+      </c>
     </row>
-    <row r="60" spans="1:6" ht="14.25">
+    <row r="60" spans="1:8" ht="14.25">
       <c r="A60" s="46">
         <v>42675</v>
       </c>
@@ -8249,6 +8662,13 @@
       </c>
       <c r="F60" s="48">
         <v>-9.5699999999999993E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>0.12776219493233665</v>
+      </c>
+      <c r="H60">
+        <v>0.12776219493233665</v>
       </c>
     </row>
   </sheetData>
@@ -8257,7 +8677,7 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="草稿" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="184">
   <si>
     <t>省份</t>
   </si>
@@ -7042,7 +7042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:H12" si="0">B3/SUM($B$2:$B$13)</f>
+        <f t="shared" ref="G3:G12" si="0">B3/SUM($B$2:$B$13)</f>
         <v>4.4570071298984951E-2</v>
       </c>
       <c r="H3">
@@ -7449,7 +7449,7 @@
         <v>1.1629</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:H25" si="1">B15/SUM($B$14:$B$25)</f>
+        <f t="shared" ref="G15:G25" si="1">B15/SUM($B$14:$B$25)</f>
         <v>4.0207057671722279E-2</v>
       </c>
       <c r="H15">
@@ -7773,7 +7773,7 @@
         <v>1.52</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:H37" si="2">B27/SUM($B$26:$B$37)</f>
+        <f t="shared" ref="G27:G37" si="2">B27/SUM($B$26:$B$37)</f>
         <v>4.0725290144164851E-2</v>
       </c>
       <c r="H27">
@@ -8097,7 +8097,7 @@
         <v>0.72319999999999995</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:H49" si="3">B39/SUM($B$38:$B$49)</f>
+        <f t="shared" ref="G39:G49" si="3">B39/SUM($B$38:$B$49)</f>
         <v>1.9328611188615549E-2</v>
       </c>
       <c r="H39">
@@ -8421,7 +8421,7 @@
         <v>1.373</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:H60" si="4">B51/SUM($B$50:$B$60)</f>
+        <f t="shared" ref="G51:G60" si="4">B51/SUM($B$50:$B$60)</f>
         <v>4.3459995429147226E-2</v>
       </c>
       <c r="H51">
@@ -8683,15 +8683,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH10"/>
+  <dimension ref="A1:BI10"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BB19" sqref="BB19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:60" ht="14.25">
+    <row r="1" spans="1:61" ht="15" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>53</v>
       </c>
@@ -8806,74 +8806,74 @@
       <c r="AL1" s="41">
         <v>42005</v>
       </c>
-      <c r="AM1" s="41">
+      <c r="AN1" s="41">
         <v>42036</v>
       </c>
-      <c r="AN1" s="41">
+      <c r="AO1" s="41">
         <v>42064</v>
       </c>
-      <c r="AO1" s="41">
+      <c r="AP1" s="41">
         <v>42095</v>
       </c>
-      <c r="AP1" s="41">
+      <c r="AQ1" s="41">
         <v>42125</v>
       </c>
-      <c r="AQ1" s="41">
+      <c r="AR1" s="41">
         <v>42156</v>
       </c>
-      <c r="AR1" s="41">
+      <c r="AS1" s="41">
         <v>42186</v>
       </c>
-      <c r="AS1" s="41">
+      <c r="AT1" s="41">
         <v>42217</v>
       </c>
-      <c r="AT1" s="41">
+      <c r="AU1" s="41">
         <v>42248</v>
       </c>
-      <c r="AU1" s="41">
+      <c r="AV1" s="41">
         <v>42278</v>
       </c>
-      <c r="AV1" s="41">
+      <c r="AW1" s="41">
         <v>42309</v>
       </c>
-      <c r="AW1" s="41">
+      <c r="AX1" s="41">
         <v>42339</v>
       </c>
-      <c r="AX1" s="41">
+      <c r="AY1" s="41">
         <v>42370</v>
       </c>
-      <c r="AY1" s="41">
+      <c r="AZ1" s="41">
         <v>42401</v>
       </c>
-      <c r="AZ1" s="41">
+      <c r="BA1" s="41">
         <v>42430</v>
       </c>
-      <c r="BA1" s="41">
+      <c r="BB1" s="41">
         <v>42461</v>
       </c>
-      <c r="BB1" s="41">
+      <c r="BC1" s="41">
         <v>42491</v>
       </c>
-      <c r="BC1" s="41">
+      <c r="BD1" s="41">
         <v>42522</v>
       </c>
-      <c r="BD1" s="41">
+      <c r="BE1" s="41">
         <v>42552</v>
       </c>
-      <c r="BE1" s="41">
+      <c r="BF1" s="41">
         <v>42583</v>
       </c>
-      <c r="BF1" s="41">
+      <c r="BG1" s="41">
         <v>42614</v>
       </c>
-      <c r="BG1" s="41">
+      <c r="BH1" s="41">
         <v>42644</v>
       </c>
-      <c r="BH1" s="41">
+      <c r="BI1" s="41">
         <v>42675</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="28.5">
+    <row r="2" spans="1:61" ht="28.5">
       <c r="A2" s="42" t="s">
         <v>54</v>
       </c>
@@ -8988,74 +8988,77 @@
       <c r="AL2" s="43">
         <v>0.36159999999999998</v>
       </c>
-      <c r="AM2" s="43">
+      <c r="AM2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN2" s="43">
         <v>0.3372</v>
       </c>
-      <c r="AN2" s="43">
+      <c r="AO2" s="43">
         <v>0.37790000000000001</v>
       </c>
-      <c r="AO2" s="43">
+      <c r="AP2" s="43">
         <v>0.36580000000000001</v>
       </c>
-      <c r="AP2" s="43">
+      <c r="AQ2" s="43">
         <v>0.37240000000000001</v>
       </c>
-      <c r="AQ2" s="43">
+      <c r="AR2" s="43">
         <v>0.37109999999999999</v>
       </c>
-      <c r="AR2" s="43">
+      <c r="AS2" s="43">
         <v>0.37190000000000001</v>
       </c>
-      <c r="AS2" s="43">
+      <c r="AT2" s="43">
         <v>0.36870000000000003</v>
       </c>
-      <c r="AT2" s="43">
+      <c r="AU2" s="43">
         <v>0.37240000000000001</v>
       </c>
-      <c r="AU2" s="43">
+      <c r="AV2" s="43">
         <v>0.35620000000000002</v>
       </c>
-      <c r="AV2" s="43">
+      <c r="AW2" s="43">
         <v>0.35320000000000001</v>
       </c>
-      <c r="AW2" s="43">
+      <c r="AX2" s="43">
         <v>0.34189999999999998</v>
       </c>
-      <c r="AX2" s="43">
+      <c r="AY2" s="43">
         <v>0.34899999999999998</v>
       </c>
-      <c r="AY2" s="43">
+      <c r="AZ2" s="43">
         <v>0.35520000000000002</v>
       </c>
-      <c r="AZ2" s="43">
+      <c r="BA2" s="43">
         <v>0.35110000000000002</v>
       </c>
-      <c r="BA2" s="43">
+      <c r="BB2" s="43">
         <v>0.32869999999999999</v>
       </c>
-      <c r="BB2" s="43">
+      <c r="BC2" s="43">
         <v>0.34449999999999997</v>
       </c>
-      <c r="BC2" s="43">
+      <c r="BD2" s="43">
         <v>0.34</v>
       </c>
-      <c r="BD2" s="43">
+      <c r="BE2" s="43">
         <v>0.35110000000000002</v>
       </c>
-      <c r="BE2" s="43">
+      <c r="BF2" s="43">
         <v>0.36840000000000001</v>
       </c>
-      <c r="BF2" s="43">
+      <c r="BG2" s="43">
         <v>0.3483</v>
       </c>
-      <c r="BG2" s="43">
+      <c r="BH2" s="43">
         <v>0.33510000000000001</v>
       </c>
-      <c r="BH2" s="43">
+      <c r="BI2" s="43">
         <v>0.32729999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="28.5">
+    <row r="3" spans="1:61" ht="28.5">
       <c r="A3" s="44" t="s">
         <v>55</v>
       </c>
@@ -9170,74 +9173,77 @@
       <c r="AL3" s="45">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AM3" s="45">
+      <c r="AM3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN3" s="45">
         <v>0.1067</v>
       </c>
-      <c r="AN3" s="45">
+      <c r="AO3" s="45">
         <v>0.1188</v>
       </c>
-      <c r="AO3" s="45">
+      <c r="AP3" s="45">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="AP3" s="45">
+      <c r="AQ3" s="45">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="AQ3" s="45">
+      <c r="AR3" s="45">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="AR3" s="45">
+      <c r="AS3" s="45">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="AS3" s="45">
+      <c r="AT3" s="45">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AT3" s="45">
+      <c r="AU3" s="45">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="AU3" s="45">
+      <c r="AV3" s="45">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AV3" s="45">
+      <c r="AW3" s="45">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="AW3" s="45">
+      <c r="AX3" s="45">
         <v>9.35E-2</v>
       </c>
-      <c r="AX3" s="45">
+      <c r="AY3" s="45">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="AY3" s="45">
+      <c r="AZ3" s="45">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="AZ3" s="45">
+      <c r="BA3" s="45">
         <v>0.1037</v>
       </c>
-      <c r="BA3" s="45">
+      <c r="BB3" s="45">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="BB3" s="45">
+      <c r="BC3" s="45">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="BC3" s="45">
+      <c r="BD3" s="45">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="BD3" s="45">
+      <c r="BE3" s="45">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="BE3" s="45">
+      <c r="BF3" s="45">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="BF3" s="45">
+      <c r="BG3" s="45">
         <v>8.48E-2</v>
       </c>
-      <c r="BG3" s="45">
+      <c r="BH3" s="45">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="BH3" s="45">
+      <c r="BI3" s="45">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="28.5">
+    <row r="4" spans="1:61" ht="28.5">
       <c r="A4" s="42" t="s">
         <v>56</v>
       </c>
@@ -9352,74 +9358,77 @@
       <c r="AL4" s="43">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="AM4" s="43">
+      <c r="AM4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" s="43">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="AN4" s="43">
+      <c r="AO4" s="43">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="AO4" s="43">
+      <c r="AP4" s="43">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="AP4" s="43">
+      <c r="AQ4" s="43">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="AQ4" s="43">
+      <c r="AR4" s="43">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="AR4" s="43">
+      <c r="AS4" s="43">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="AS4" s="43">
+      <c r="AT4" s="43">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="AT4" s="43">
+      <c r="AU4" s="43">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AU4" s="43">
+      <c r="AV4" s="43">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="AV4" s="43">
+      <c r="AW4" s="43">
         <v>0.1</v>
       </c>
-      <c r="AW4" s="43">
+      <c r="AX4" s="43">
         <v>0.1051</v>
       </c>
-      <c r="AX4" s="43">
+      <c r="AY4" s="43">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="AY4" s="43">
+      <c r="AZ4" s="43">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="AZ4" s="43">
+      <c r="BA4" s="43">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="BA4" s="43">
+      <c r="BB4" s="43">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="BB4" s="43">
+      <c r="BC4" s="43">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="BC4" s="43">
+      <c r="BD4" s="43">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="BD4" s="43">
+      <c r="BE4" s="43">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="BE4" s="43">
+      <c r="BF4" s="43">
         <v>8.43E-2</v>
       </c>
-      <c r="BF4" s="43">
+      <c r="BG4" s="43">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="BG4" s="43">
+      <c r="BH4" s="43">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="BH4" s="43">
+      <c r="BI4" s="43">
         <v>0.1084</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="14.25">
+    <row r="5" spans="1:61" ht="28.5">
       <c r="A5" s="44" t="s">
         <v>57</v>
       </c>
@@ -9534,74 +9543,77 @@
       <c r="AL5" s="45">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="AM5" s="45">
+      <c r="AM5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN5" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AN5" s="45">
+      <c r="AO5" s="45">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="AO5" s="45">
+      <c r="AP5" s="45">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="AP5" s="45">
+      <c r="AQ5" s="45">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="AQ5" s="45">
+      <c r="AR5" s="45">
         <v>0.1052</v>
       </c>
-      <c r="AR5" s="45">
+      <c r="AS5" s="45">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="AS5" s="45">
+      <c r="AT5" s="45">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="AT5" s="45">
+      <c r="AU5" s="45">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="AU5" s="45">
+      <c r="AV5" s="45">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="AV5" s="45">
+      <c r="AW5" s="45">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="AW5" s="45">
+      <c r="AX5" s="45">
         <v>2.23E-2</v>
       </c>
-      <c r="AX5" s="45">
+      <c r="AY5" s="45">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="AY5" s="45">
+      <c r="AZ5" s="45">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AZ5" s="45">
+      <c r="BA5" s="45">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="BA5" s="45">
+      <c r="BB5" s="45">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="BB5" s="45">
+      <c r="BC5" s="45">
         <v>0.10639999999999999</v>
       </c>
-      <c r="BC5" s="45">
+      <c r="BD5" s="45">
         <v>0.11409999999999999</v>
       </c>
-      <c r="BD5" s="45">
+      <c r="BE5" s="45">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="BE5" s="45">
+      <c r="BF5" s="45">
         <v>6.93E-2</v>
       </c>
-      <c r="BF5" s="45">
+      <c r="BG5" s="45">
         <v>5.45E-2</v>
       </c>
-      <c r="BG5" s="45">
+      <c r="BH5" s="45">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="BH5" s="45">
+      <c r="BI5" s="45">
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="14.25">
+    <row r="6" spans="1:61" ht="28.5">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -9716,74 +9728,77 @@
       <c r="AL6" s="43">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AM6" s="43">
+      <c r="AM6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN6" s="43">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="AN6" s="43">
+      <c r="AO6" s="43">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="AO6" s="43">
+      <c r="AP6" s="43">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="AP6" s="43">
+      <c r="AQ6" s="43">
         <v>4.36E-2</v>
       </c>
-      <c r="AQ6" s="43">
+      <c r="AR6" s="43">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AR6" s="43">
+      <c r="AS6" s="43">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="AS6" s="43">
+      <c r="AT6" s="43">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="AT6" s="43">
+      <c r="AU6" s="43">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="AU6" s="43">
+      <c r="AV6" s="43">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="AV6" s="43">
+      <c r="AW6" s="43">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="AW6" s="43">
+      <c r="AX6" s="43">
         <v>3.32E-2</v>
       </c>
-      <c r="AX6" s="43">
+      <c r="AY6" s="43">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="AY6" s="43">
+      <c r="AZ6" s="43">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="AZ6" s="43">
+      <c r="BA6" s="43">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="BA6" s="43">
+      <c r="BB6" s="43">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="BB6" s="43">
+      <c r="BC6" s="43">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="BC6" s="43">
+      <c r="BD6" s="43">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="BD6" s="43">
+      <c r="BE6" s="43">
         <v>2.86E-2</v>
       </c>
-      <c r="BE6" s="43">
+      <c r="BF6" s="43">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="BF6" s="43">
+      <c r="BG6" s="43">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="BG6" s="43">
+      <c r="BH6" s="43">
         <v>3.32E-2</v>
       </c>
-      <c r="BH6" s="43">
+      <c r="BI6" s="43">
         <v>2.81E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="28.5">
+    <row r="7" spans="1:61" ht="28.5">
       <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
@@ -9898,74 +9913,77 @@
       <c r="AL7" s="45">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="AM7" s="45">
+      <c r="AM7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN7" s="45">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="AN7" s="45">
+      <c r="AO7" s="45">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="AO7" s="45">
+      <c r="AP7" s="45">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="AP7" s="45">
+      <c r="AQ7" s="45">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AQ7" s="45">
+      <c r="AR7" s="45">
         <v>1.49E-2</v>
       </c>
-      <c r="AR7" s="45">
+      <c r="AS7" s="45">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="AS7" s="45">
+      <c r="AT7" s="45">
         <v>1.49E-2</v>
       </c>
-      <c r="AT7" s="45">
+      <c r="AU7" s="45">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="AU7" s="45">
+      <c r="AV7" s="45">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="AV7" s="45">
+      <c r="AW7" s="45">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="AW7" s="45">
+      <c r="AX7" s="45">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="AX7" s="45">
+      <c r="AY7" s="45">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="AY7" s="45">
+      <c r="AZ7" s="45">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="AZ7" s="45">
+      <c r="BA7" s="45">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="BA7" s="45">
+      <c r="BB7" s="45">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="BB7" s="45">
+      <c r="BC7" s="45">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="BC7" s="45">
+      <c r="BD7" s="45">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="BD7" s="45">
+      <c r="BE7" s="45">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="BE7" s="45">
+      <c r="BF7" s="45">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="BF7" s="45">
+      <c r="BG7" s="45">
         <v>2.41E-2</v>
       </c>
-      <c r="BG7" s="45">
+      <c r="BH7" s="45">
         <v>3.1E-2</v>
       </c>
-      <c r="BH7" s="45">
+      <c r="BI7" s="45">
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="14.25">
+    <row r="8" spans="1:61" ht="14.25">
       <c r="A8" s="42" t="s">
         <v>60</v>
       </c>
@@ -10080,74 +10098,77 @@
       <c r="AL8" s="43">
         <v>0.1953</v>
       </c>
-      <c r="AM8" s="43">
+      <c r="AM8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN8" s="43">
         <v>0.2165</v>
       </c>
-      <c r="AN8" s="43">
+      <c r="AO8" s="43">
         <v>0.17730000000000001</v>
       </c>
-      <c r="AO8" s="43">
+      <c r="AP8" s="43">
         <v>0.18329999999999999</v>
       </c>
-      <c r="AP8" s="43">
+      <c r="AQ8" s="43">
         <v>0.1903</v>
       </c>
-      <c r="AQ8" s="43">
+      <c r="AR8" s="43">
         <v>0.17730000000000001</v>
       </c>
-      <c r="AR8" s="43">
+      <c r="AS8" s="43">
         <v>0.1923</v>
       </c>
-      <c r="AS8" s="43">
+      <c r="AT8" s="43">
         <v>0.20810000000000001</v>
       </c>
-      <c r="AT8" s="43">
+      <c r="AU8" s="43">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AU8" s="43">
+      <c r="AV8" s="43">
         <v>0.21870000000000001</v>
       </c>
-      <c r="AV8" s="43">
+      <c r="AW8" s="43">
         <v>0.23860000000000001</v>
       </c>
-      <c r="AW8" s="43">
+      <c r="AX8" s="43">
         <v>0.25679999999999997</v>
       </c>
-      <c r="AX8" s="43">
+      <c r="AY8" s="43">
         <v>0.245</v>
       </c>
-      <c r="AY8" s="43">
+      <c r="AZ8" s="43">
         <v>0.26440000000000002</v>
       </c>
-      <c r="AZ8" s="43">
+      <c r="BA8" s="43">
         <v>0.25080000000000002</v>
       </c>
-      <c r="BA8" s="43">
+      <c r="BB8" s="43">
         <v>0.23880000000000001</v>
       </c>
-      <c r="BB8" s="43">
+      <c r="BC8" s="43">
         <v>0.21190000000000001</v>
       </c>
-      <c r="BC8" s="43">
+      <c r="BD8" s="43">
         <v>0.21049999999999999</v>
       </c>
-      <c r="BD8" s="43">
+      <c r="BE8" s="43">
         <v>0.22120000000000001</v>
       </c>
-      <c r="BE8" s="43">
+      <c r="BF8" s="43">
         <v>0.21959999999999999</v>
       </c>
-      <c r="BF8" s="43">
+      <c r="BG8" s="43">
         <v>0.2349</v>
       </c>
-      <c r="BG8" s="43">
+      <c r="BH8" s="43">
         <v>0.24460000000000001</v>
       </c>
-      <c r="BH8" s="43">
+      <c r="BI8" s="43">
         <v>0.26869999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="28.5">
+    <row r="9" spans="1:61" ht="28.5">
       <c r="A9" s="44" t="s">
         <v>61</v>
       </c>
@@ -10262,74 +10283,77 @@
       <c r="AL9" s="45">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="AM9" s="45">
+      <c r="AM9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN9" s="45">
         <v>0.1043</v>
       </c>
-      <c r="AN9" s="45">
+      <c r="AO9" s="45">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="AO9" s="45">
+      <c r="AP9" s="45">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AP9" s="45">
+      <c r="AQ9" s="45">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AQ9" s="45">
+      <c r="AR9" s="45">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="AR9" s="45">
+      <c r="AS9" s="45">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="AS9" s="45">
+      <c r="AT9" s="45">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="AT9" s="45">
+      <c r="AU9" s="45">
         <v>8.14E-2</v>
       </c>
-      <c r="AU9" s="45">
+      <c r="AV9" s="45">
         <v>9.06E-2</v>
       </c>
-      <c r="AV9" s="45">
+      <c r="AW9" s="45">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AW9" s="45">
+      <c r="AX9" s="45">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="AX9" s="45">
+      <c r="AY9" s="45">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="AY9" s="45">
+      <c r="AZ9" s="45">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="AZ9" s="45">
+      <c r="BA9" s="45">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="BA9" s="45">
+      <c r="BB9" s="45">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="BB9" s="45">
+      <c r="BC9" s="45">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="BC9" s="45">
+      <c r="BD9" s="45">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="BD9" s="45">
+      <c r="BE9" s="45">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="BE9" s="45">
+      <c r="BF9" s="45">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="BF9" s="45">
+      <c r="BG9" s="45">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="BG9" s="45">
+      <c r="BH9" s="45">
         <v>8.43E-2</v>
       </c>
-      <c r="BH9" s="45">
+      <c r="BI9" s="45">
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="28.5">
+    <row r="10" spans="1:61" ht="29.25" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>62</v>
       </c>
@@ -10444,76 +10468,80 @@
       <c r="AL10" s="43">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="AM10" s="43">
+      <c r="AM10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN10" s="43">
         <v>3.04E-2</v>
       </c>
-      <c r="AN10" s="43">
+      <c r="AO10" s="43">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="AO10" s="43">
+      <c r="AP10" s="43">
         <v>4.24E-2</v>
       </c>
-      <c r="AP10" s="43">
+      <c r="AQ10" s="43">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="AQ10" s="43">
+      <c r="AR10" s="43">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="AR10" s="43">
+      <c r="AS10" s="43">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="AS10" s="43">
+      <c r="AT10" s="43">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AT10" s="43">
+      <c r="AU10" s="43">
         <v>4.19E-2</v>
       </c>
-      <c r="AU10" s="43">
+      <c r="AV10" s="43">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="AV10" s="43">
+      <c r="AW10" s="43">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="AW10" s="43">
+      <c r="AX10" s="43">
         <v>2.69E-2</v>
       </c>
-      <c r="AX10" s="43">
+      <c r="AY10" s="43">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="AY10" s="43">
+      <c r="AZ10" s="43">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="AZ10" s="43">
+      <c r="BA10" s="43">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="BA10" s="43">
+      <c r="BB10" s="43">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="BB10" s="43">
+      <c r="BC10" s="43">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="BC10" s="43">
+      <c r="BD10" s="43">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="BD10" s="43">
+      <c r="BE10" s="43">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="BE10" s="43">
+      <c r="BF10" s="43">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="BF10" s="43">
+      <c r="BG10" s="43">
         <v>4.07E-2</v>
       </c>
-      <c r="BG10" s="43">
+      <c r="BH10" s="43">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="BH10" s="43">
+      <c r="BI10" s="43">
         <v>3.32E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10522,7 +10550,7 @@
   <dimension ref="A1:FV12"/>
   <sheetViews>
     <sheetView topLeftCell="FL1" workbookViewId="0">
-      <selection activeCell="FS16" sqref="FS16"/>
+      <selection activeCell="FM3" sqref="FM3:FM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16179,6 +16207,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -6547,7 +6547,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7043,7 +7043,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8686,7 +8686,7 @@
   <dimension ref="A1:BI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="草稿" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="184">
   <si>
     <t>省份</t>
   </si>
@@ -645,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -713,50 +713,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC9C9C9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC9C9C9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC9C9C9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC9C9C9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC9C9C9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC9C9C9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC9C9C9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC9C9C9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,12 +780,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -842,18 +799,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6553,476 +6498,476 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49">
         <v>2012</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49">
         <v>2013</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49">
         <v>2014</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49">
         <v>2015</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49">
         <v>2016</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="48">
         <v>-7.2</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="48">
         <v>16.8</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="48">
         <v>-5.2</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="48">
         <v>6.5</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="48">
         <v>-3.9</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="48">
         <v>4.8</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="48">
         <v>-3.1</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="48">
         <v>14.4</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="48">
         <v>-5.3</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="48">
         <v>25.7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="48">
         <v>-3.2</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="48">
         <v>14.5</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="48">
         <v>-1.6</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="48">
         <v>13.7</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="48">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="48">
         <v>17.2</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="48">
         <v>-0.2</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="48">
         <v>16.3</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="48">
         <v>-1.6</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="48">
         <v>12.3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="48">
         <v>3.1</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="48">
         <v>28.2</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="48">
         <v>6.1</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="48">
         <v>26.1</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="48">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="48">
         <v>28</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="48">
         <v>5.8</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="48">
         <v>21.8</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="48">
         <v>5.9</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="48">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="48">
         <v>11.4</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="48">
         <v>39.799999999999997</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="48">
         <v>10.199999999999999</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="48">
         <v>32.6</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="48">
         <v>11.9</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="48">
         <v>41.4</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="48">
         <v>11.4</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="48">
         <v>41.7</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="48">
         <v>12.3</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="48">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="48">
         <v>16.8</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="48">
         <v>66.099999999999994</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="48">
         <v>16.8</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="48">
         <v>80.900000000000006</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="48">
         <v>16.2</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="48">
         <v>70.599999999999994</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="48">
         <v>16.8</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="48">
         <v>80</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="48">
         <v>16.3</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="48">
         <v>82.8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="48">
         <v>20.100000000000001</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="48">
         <v>101.6</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="48">
         <v>20.7</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="48">
         <v>98.2</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="48">
         <v>20.5</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="48">
         <v>100.7</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="48">
         <v>20.3</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="48">
         <v>104.8</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="48">
         <v>20.6</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="48">
         <v>110.9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="48">
         <v>24</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="48">
         <v>130.4</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="48">
         <v>22.4</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="48">
         <v>138.9</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="48">
         <v>22.3</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="48">
         <v>115</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="48">
         <v>22.1</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="48">
         <v>88.7</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="48">
         <v>22.7</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="48">
         <v>132.80000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="48">
         <v>21.4</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="48">
         <v>92.1</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="48">
         <v>22.3</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="48">
         <v>89.5</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="48">
         <v>21.1</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="48">
         <v>104.4</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="48">
         <v>21.1</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="48">
         <v>105.1</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="48">
         <v>22</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="48">
         <v>93.8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <v>16.8</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="48">
         <v>70.400000000000006</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="48">
         <v>17.2</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="48">
         <v>65.400000000000006</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="48">
         <v>17.3</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="48">
         <v>77.7</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="48">
         <v>17.2</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="48">
         <v>65.400000000000006</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="48">
         <v>18</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="48">
         <v>71.599999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="48">
         <v>10.5</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="48">
         <v>29.1</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="48">
         <v>11.1</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="48">
         <v>30.8</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="48">
         <v>11.2</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="48">
         <v>29.5</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="48">
         <v>11</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="48">
         <v>39.5</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="48">
         <v>10.9</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="48">
         <v>55.4</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="48">
         <v>30.9</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="48">
         <v>3.6</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="48">
         <v>22.5</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="48">
         <v>3.9</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="48">
         <v>22.6</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="48">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="48">
         <v>39.4</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="48">
         <v>2.9</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="48">
         <v>30.7</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="48">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="48">
         <v>15.3</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="48">
         <v>-2.8</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="48">
         <v>15.4</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="48">
         <v>-3.3</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="48">
         <v>7.6</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="48">
         <v>-2.1</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="48">
         <v>23.1</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7056,45 +7001,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="46">
+      <c r="A2" s="40">
         <v>40909</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="41">
         <v>26858255</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="41">
         <v>844290</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="41">
         <v>74364</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="42">
         <v>-0.56469999999999998</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="43">
         <v>0</v>
       </c>
       <c r="G2">
@@ -7106,22 +7051,22 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="50">
+      <c r="A3" s="44">
         <v>40940</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="45">
         <v>45656637</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="45">
         <v>1466620</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="45">
         <v>90648</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="46">
         <v>0.69989999999999997</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="47">
         <v>0</v>
       </c>
       <c r="G3">
@@ -7133,22 +7078,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="46">
+      <c r="A4" s="40">
         <v>40969</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="41">
         <v>63699755</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="41">
         <v>2169129</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="41">
         <v>105121</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="42">
         <v>0.3952</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="43">
         <v>0</v>
       </c>
       <c r="G4">
@@ -7160,22 +7105,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="50">
+      <c r="A5" s="44">
         <v>41000</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="45">
         <v>60640471</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="45">
         <v>2167437</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="45">
         <v>111851</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="46">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="46">
         <v>1.5391999999999999</v>
       </c>
       <c r="G5">
@@ -7187,22 +7132,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="46">
+      <c r="A6" s="40">
         <v>41030</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="41">
         <v>68835473</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="41">
         <v>2449316</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="41">
         <v>118086</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="42">
         <v>0.1351</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="42">
         <v>1.1587000000000001</v>
       </c>
       <c r="G6">
@@ -7214,22 +7159,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="50">
+      <c r="A7" s="44">
         <v>41061</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="45">
         <v>77281218</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="45">
         <v>2680205</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="45">
         <v>129279</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="46">
         <v>0.1227</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="46">
         <v>1.0079</v>
       </c>
       <c r="G7">
@@ -7241,22 +7186,22 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="46">
+      <c r="A8" s="40">
         <v>41091</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="41">
         <v>82895218</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="41">
         <v>2826141</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="41">
         <v>132813</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="42">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="42">
         <v>0.71179999999999999</v>
       </c>
       <c r="G8">
@@ -7268,22 +7213,22 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="50">
+      <c r="A9" s="44">
         <v>41122</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="45">
         <v>105723594</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="45">
         <v>3068940</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="45">
         <v>126362</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="46">
         <v>0.27539999999999998</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="46">
         <v>1.6954</v>
       </c>
       <c r="G9">
@@ -7295,22 +7240,22 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="46">
+      <c r="A10" s="40">
         <v>41153</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="41">
         <v>105390272</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="41">
         <v>3295543</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="41">
         <v>138891</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="42">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="42">
         <v>1.6362000000000001</v>
       </c>
       <c r="G10">
@@ -7322,22 +7267,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="50">
+      <c r="A11" s="44">
         <v>41183</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="45">
         <v>102577913</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="45">
         <v>3305242</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="45">
         <v>142172</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="46">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="46">
         <v>1.5249999999999999</v>
       </c>
       <c r="G11">
@@ -7349,22 +7294,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="46">
+      <c r="A12" s="40">
         <v>41214</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="41">
         <v>147479006</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="41">
         <v>4119299</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="41">
         <v>156395</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="42">
         <v>0.43769999999999998</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="42">
         <v>1.3927</v>
       </c>
       <c r="G12">
@@ -7376,22 +7321,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="50">
+      <c r="A13" s="44">
         <v>41244</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="45">
         <v>137341007</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="45">
         <v>4201049</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="45">
         <v>149995</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="46">
         <v>-6.8699999999999997E-2</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="46">
         <v>1.226</v>
       </c>
       <c r="G13">
@@ -7403,22 +7348,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="46">
+      <c r="A14" s="40">
         <v>41275</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="41">
         <v>137942082</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="41">
         <v>3918053</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="41">
         <v>148924</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="42">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="42">
         <v>4.1359000000000004</v>
       </c>
       <c r="G14">
@@ -7430,22 +7375,22 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="50">
+      <c r="A15" s="44">
         <v>41306</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="45">
         <v>98748510</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="45">
         <v>2519530</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="45">
         <v>127003</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="46">
         <v>-0.28410000000000002</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="46">
         <v>1.1629</v>
       </c>
       <c r="G15">
@@ -7457,22 +7402,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="46">
+      <c r="A16" s="40">
         <v>41334</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="41">
         <v>165033518</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="41">
         <v>4486313</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="41">
         <v>166272</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="42">
         <v>0.67130000000000001</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="42">
         <v>1.5908</v>
       </c>
       <c r="G16">
@@ -7484,22 +7429,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="50">
+      <c r="A17" s="44">
         <v>41365</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="45">
         <v>149167809</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="45">
         <v>4174055</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="45">
         <v>70466</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="46">
         <v>-9.6100000000000005E-2</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="46">
         <v>1.4599</v>
       </c>
       <c r="G17">
@@ -7511,22 +7456,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="46">
+      <c r="A18" s="40">
         <v>41395</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="41">
         <v>180430624</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="41">
         <v>4917328</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="41">
         <v>75011</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="42">
         <v>0.20960000000000001</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="42">
         <v>1.6212</v>
       </c>
       <c r="G18">
@@ -7538,22 +7483,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="50">
+      <c r="A19" s="44">
         <v>41426</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="45">
         <v>198853504</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="45">
         <v>5252983</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="45">
         <v>77975</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="46">
         <v>0.1021</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="46">
         <v>1.5730999999999999</v>
       </c>
       <c r="G19">
@@ -7565,22 +7510,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="46">
+      <c r="A20" s="40">
         <v>41456</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="41">
         <v>223521552</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="41">
         <v>5640550</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="41">
         <v>79736</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="42">
         <v>0.1241</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="42">
         <v>1.6963999999999999</v>
       </c>
       <c r="G20">
@@ -7592,22 +7537,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="50">
+      <c r="A21" s="44">
         <v>41487</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="45">
         <v>241897885</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="45">
         <v>6080053</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="45">
         <v>82985</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="46">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="46">
         <v>1.288</v>
       </c>
       <c r="G21">
@@ -7619,22 +7564,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25">
-      <c r="A22" s="46">
+      <c r="A22" s="40">
         <v>41518</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="41">
         <v>222025058</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="41">
         <v>5993796</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="41">
         <v>85374</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="42">
         <v>-8.2199999999999995E-2</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="42">
         <v>1.1067</v>
       </c>
       <c r="G22">
@@ -7646,22 +7591,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="50">
+      <c r="A23" s="44">
         <v>41548</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="45">
         <v>235656765</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="45">
         <v>6288447</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="45">
         <v>86852</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="46">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="46">
         <v>1.2972999999999999</v>
       </c>
       <c r="G23">
@@ -7673,22 +7618,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="46">
+      <c r="A24" s="40">
         <v>41579</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="41">
         <v>316691413</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="41">
         <v>7666640</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="41">
         <v>96260</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="42">
         <v>0.34389999999999998</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="42">
         <v>1.1474</v>
       </c>
       <c r="G24">
@@ -7700,22 +7645,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="50">
+      <c r="A25" s="44">
         <v>41609</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="45">
         <v>286030692</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="45">
         <v>7354059</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="45">
         <v>91844</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="46">
         <v>-9.6799999999999997E-2</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="46">
         <v>1.0826</v>
       </c>
       <c r="G25">
@@ -7727,22 +7672,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="46">
+      <c r="A26" s="40">
         <v>41640</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="41">
         <v>216790012</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="41">
         <v>5184286</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="41">
         <v>75627</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="42">
         <v>-0.24210000000000001</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="42">
         <v>0.5716</v>
       </c>
       <c r="G26">
@@ -7754,22 +7699,22 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="50">
+      <c r="A27" s="44">
         <v>41671</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="45">
         <v>248843275</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="45">
         <v>5898677</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="45">
         <v>82785</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="46">
         <v>0.1479</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="47">
         <v>1.52</v>
       </c>
       <c r="G27">
@@ -7781,22 +7726,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="46">
+      <c r="A28" s="40">
         <v>41699</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="41">
         <v>347671050</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="41">
         <v>8257162</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="41">
         <v>102802</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="42">
         <v>0.39710000000000001</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="42">
         <v>1.1067</v>
       </c>
       <c r="G28">
@@ -7808,22 +7753,22 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="50">
+      <c r="A29" s="44">
         <v>41730</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="45">
         <v>380084395</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="45">
         <v>9019341</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="45">
         <v>103852</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="46">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="46">
         <v>1.548</v>
       </c>
       <c r="G29">
@@ -7835,22 +7780,22 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="46">
+      <c r="A30" s="40">
         <v>41760</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="41">
         <v>446451772</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="41">
         <v>10331736</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="41">
         <v>113199</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="42">
         <v>0.17460000000000001</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="42">
         <v>1.4743999999999999</v>
       </c>
       <c r="G30">
@@ -7862,22 +7807,22 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="50">
+      <c r="A31" s="44">
         <v>41791</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="45">
         <v>494165317</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="45">
         <v>10872787</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="45">
         <v>116667</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="46">
         <v>0.1069</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="46">
         <v>1.4851000000000001</v>
       </c>
       <c r="G31">
@@ -7889,22 +7834,22 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="46">
+      <c r="A32" s="40">
         <v>41821</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="41">
         <v>526826126</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="41">
         <v>11614561</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="41">
         <v>121645</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="42">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="42">
         <v>1.3569</v>
       </c>
       <c r="G32">
@@ -7916,22 +7861,22 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="50">
+      <c r="A33" s="44">
         <v>41852</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="45">
         <v>568846967</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="45">
         <v>12057771</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="45">
         <v>123034</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="46">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="46">
         <v>1.3515999999999999</v>
       </c>
       <c r="G33">
@@ -7943,22 +7888,22 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="46">
+      <c r="A34" s="40">
         <v>41883</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="41">
         <v>645901353</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="41">
         <v>13497890</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="41">
         <v>129474</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="42">
         <v>0.13550000000000001</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="42">
         <v>1.9091</v>
       </c>
       <c r="G34">
@@ -7970,22 +7915,22 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25">
-      <c r="A35" s="50">
+      <c r="A35" s="44">
         <v>41913</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="45">
         <v>696606846</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="45">
         <v>13686965</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="45">
         <v>128815</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="46">
         <v>7.85E-2</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="46">
         <v>1.956</v>
       </c>
       <c r="G35">
@@ -7997,22 +7942,22 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="46">
+      <c r="A36" s="40">
         <v>41944</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="41">
         <v>780101324</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="41">
         <v>15504611</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="41">
         <v>142083</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="42">
         <v>0.11990000000000001</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="42">
         <v>1.4633</v>
       </c>
       <c r="G36">
@@ -8024,22 +7969,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25">
-      <c r="A37" s="50">
+      <c r="A37" s="44">
         <v>41974</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B37" s="45">
         <v>758000136</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="45">
         <v>15579026</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="45">
         <v>136357</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="46">
         <v>-2.8299999999999999E-2</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="46">
         <v>1.6500999999999999</v>
       </c>
       <c r="G37">
@@ -8051,22 +7996,22 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.25">
-      <c r="A38" s="46">
+      <c r="A38" s="40">
         <v>42005</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="41">
         <v>786697055</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="41">
         <v>14451833</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="41">
         <v>127804</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="42">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="42">
         <v>2.6288</v>
       </c>
       <c r="G38">
@@ -8078,22 +8023,22 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25">
-      <c r="A39" s="50">
+      <c r="A39" s="44">
         <v>42036</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="45">
         <v>428796895</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="45">
         <v>7992107</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="45">
         <v>66294</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="46">
         <v>-0.45490000000000003</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="46">
         <v>0.72319999999999995</v>
       </c>
       <c r="G39">
@@ -8105,22 +8050,22 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="46">
+      <c r="A40" s="40">
         <v>42064</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="41">
         <v>972526842</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="41">
         <v>18370183</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="41">
         <v>144992</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="42">
         <v>1.268</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="42">
         <v>1.7972999999999999</v>
       </c>
       <c r="G40">
@@ -8132,22 +8077,22 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.25">
-      <c r="A41" s="50">
+      <c r="A41" s="44">
         <v>42095</v>
       </c>
-      <c r="B41" s="51">
+      <c r="B41" s="45">
         <v>946371705</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="45">
         <v>17381431</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="45">
         <v>140142</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E41" s="46">
         <v>-2.69E-2</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="46">
         <v>1.4899</v>
       </c>
       <c r="G41">
@@ -8159,22 +8104,22 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25">
-      <c r="A42" s="46">
+      <c r="A42" s="40">
         <v>42125</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="41">
         <v>2041075945</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="41">
         <v>18840763</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="41">
         <v>144077</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="42">
         <v>1.1567000000000001</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="42">
         <v>3.5718000000000001</v>
       </c>
       <c r="G42">
@@ -8186,22 +8131,22 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="50">
+      <c r="A43" s="44">
         <v>42156</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="45">
         <v>2375692045</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="45">
         <v>20331208</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="45">
         <v>144726</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="46">
         <v>0.16389999999999999</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="46">
         <v>3.8075000000000001</v>
       </c>
       <c r="G43">
@@ -8213,22 +8158,22 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="46">
+      <c r="A44" s="40">
         <v>42186</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="41">
         <v>1224590715</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="41">
         <v>21541228</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="41">
         <v>146967</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="42">
         <v>-0.48449999999999999</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="42">
         <v>1.3245</v>
       </c>
       <c r="G44">
@@ -8240,22 +8185,22 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="50">
+      <c r="A45" s="44">
         <v>42217</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="45">
         <v>2639795550</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="45">
         <v>23261267</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="45">
         <v>150306</v>
       </c>
-      <c r="E45" s="52">
+      <c r="E45" s="46">
         <v>1.1556999999999999</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="46">
         <v>3.6406000000000001</v>
       </c>
       <c r="G45">
@@ -8267,22 +8212,22 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.25">
-      <c r="A46" s="46">
+      <c r="A46" s="40">
         <v>42248</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="41">
         <v>2850565095</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="41">
         <v>24263308</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="41">
         <v>156754</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="42">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="42">
         <v>3.4133</v>
       </c>
       <c r="G46">
@@ -8294,22 +8239,22 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.25">
-      <c r="A47" s="50">
+      <c r="A47" s="44">
         <v>42278</v>
       </c>
-      <c r="B47" s="51">
+      <c r="B47" s="45">
         <v>2987671680</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="45">
         <v>26114857</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="45">
         <v>159583</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="46">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="46">
         <v>3.2888999999999999</v>
       </c>
       <c r="G47">
@@ -8321,22 +8266,22 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="46">
+      <c r="A48" s="40">
         <v>42309</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="41">
         <v>3307872165</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="41">
         <v>29474524</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="41">
         <v>173485</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="42">
         <v>0.1072</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="42">
         <v>3.2403</v>
       </c>
       <c r="G48">
@@ -8348,22 +8293,22 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.25">
-      <c r="A49" s="50">
+      <c r="A49" s="44">
         <v>42339</v>
       </c>
-      <c r="B49" s="51">
+      <c r="B49" s="45">
         <v>1622912605</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="45">
         <v>29571813</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="45">
         <v>6973</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="46">
         <v>-0.50939999999999996</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="46">
         <v>1.141</v>
       </c>
       <c r="G49">
@@ -8375,22 +8320,22 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="46">
+      <c r="A50" s="40">
         <v>42370</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="41">
         <v>1553405840</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="41">
         <v>25822668</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="41">
         <v>6817</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="42">
         <v>-4.2799999999999998E-2</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="42">
         <v>0.97460000000000002</v>
       </c>
       <c r="G50">
@@ -8402,22 +8347,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.25">
-      <c r="A51" s="50">
+      <c r="A51" s="44">
         <v>42401</v>
       </c>
-      <c r="B51" s="51">
+      <c r="B51" s="45">
         <v>1017550970</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="45">
         <v>17527729</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="45">
         <v>5177</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="46">
         <v>-0.34499999999999997</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="46">
         <v>1.373</v>
       </c>
       <c r="G51">
@@ -8429,22 +8374,22 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.25">
-      <c r="A52" s="46">
+      <c r="A52" s="40">
         <v>42430</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="41">
         <v>1987857760</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="41">
         <v>33553580</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="41">
         <v>7750</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="42">
         <v>0.9536</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="42">
         <v>1.044</v>
       </c>
       <c r="G52">
@@ -8456,22 +8401,22 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25">
-      <c r="A53" s="50">
+      <c r="A53" s="44">
         <v>42461</v>
       </c>
-      <c r="B53" s="51">
+      <c r="B53" s="45">
         <v>1837843595</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="45">
         <v>31592423</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="45">
         <v>5212</v>
       </c>
-      <c r="E53" s="52">
+      <c r="E53" s="46">
         <v>-7.5499999999999998E-2</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="46">
         <v>0.94199999999999995</v>
       </c>
       <c r="G53">
@@ -8483,22 +8428,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25">
-      <c r="A54" s="46">
+      <c r="A54" s="40">
         <v>42491</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="41">
         <v>2204432375</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="41">
         <v>37783276</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="41">
         <v>8392</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="42">
         <v>0.19950000000000001</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="43">
         <v>0.08</v>
       </c>
       <c r="G54">
@@ -8510,22 +8455,22 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25">
-      <c r="A55" s="50">
+      <c r="A55" s="44">
         <v>42522</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="45">
         <v>2298639535</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="45">
         <v>39467626</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="45">
         <v>8396</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55" s="46">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="46">
         <v>-3.2399999999999998E-2</v>
       </c>
       <c r="G55">
@@ -8537,22 +8482,22 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.25">
-      <c r="A56" s="46">
+      <c r="A56" s="40">
         <v>42552</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="41">
         <v>2188716450</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="41">
         <v>38441738</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="41">
         <v>7351</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="42">
         <v>-4.7800000000000002E-2</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="42">
         <v>0.7873</v>
       </c>
       <c r="G56">
@@ -8564,22 +8509,22 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.25">
-      <c r="A57" s="50">
+      <c r="A57" s="44">
         <v>42583</v>
       </c>
-      <c r="B57" s="51">
+      <c r="B57" s="45">
         <v>2209583300</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="45">
         <v>36511742</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="45">
         <v>8121</v>
       </c>
-      <c r="E57" s="52">
+      <c r="E57" s="46">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="46">
         <v>-0.16300000000000001</v>
       </c>
       <c r="G57">
@@ -8591,22 +8536,22 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25">
-      <c r="A58" s="46">
+      <c r="A58" s="40">
         <v>42614</v>
       </c>
-      <c r="B58" s="47">
+      <c r="B58" s="41">
         <v>2555400675</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="41">
         <v>44511457</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="41">
         <v>8401</v>
       </c>
-      <c r="E58" s="48">
+      <c r="E58" s="42">
         <v>0.1565</v>
       </c>
-      <c r="F58" s="48">
+      <c r="F58" s="42">
         <v>-0.10349999999999999</v>
       </c>
       <c r="G58">
@@ -8618,22 +8563,22 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.25">
-      <c r="A59" s="50">
+      <c r="A59" s="44">
         <v>42644</v>
       </c>
-      <c r="B59" s="51">
+      <c r="B59" s="45">
         <v>2568716715</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="45">
         <v>45654178</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="45">
         <v>202055</v>
       </c>
-      <c r="E59" s="52">
+      <c r="E59" s="46">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="46">
         <v>-0.14019999999999999</v>
       </c>
       <c r="G59">
@@ -8645,22 +8590,22 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.25">
-      <c r="A60" s="46">
+      <c r="A60" s="40">
         <v>42675</v>
       </c>
-      <c r="B60" s="47">
+      <c r="B60" s="41">
         <v>2991361230</v>
       </c>
-      <c r="C60" s="47">
+      <c r="C60" s="41">
         <v>50684200</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="41">
         <v>213393</v>
       </c>
-      <c r="E60" s="48">
+      <c r="E60" s="42">
         <v>0.16450000000000001</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="42">
         <v>-9.5699999999999993E-2</v>
       </c>
       <c r="G60">
@@ -8685,1856 +8630,1856 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:61" ht="15" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="35">
         <v>40909</v>
       </c>
-      <c r="C1" s="41">
+      <c r="C1" s="35">
         <v>40940</v>
       </c>
-      <c r="D1" s="41">
+      <c r="D1" s="35">
         <v>40969</v>
       </c>
-      <c r="E1" s="41">
+      <c r="E1" s="35">
         <v>41000</v>
       </c>
-      <c r="F1" s="41">
+      <c r="F1" s="35">
         <v>41030</v>
       </c>
-      <c r="G1" s="41">
+      <c r="G1" s="35">
         <v>41061</v>
       </c>
-      <c r="H1" s="41">
+      <c r="H1" s="35">
         <v>41091</v>
       </c>
-      <c r="I1" s="41">
+      <c r="I1" s="35">
         <v>41122</v>
       </c>
-      <c r="J1" s="41">
+      <c r="J1" s="35">
         <v>41153</v>
       </c>
-      <c r="K1" s="41">
+      <c r="K1" s="35">
         <v>41183</v>
       </c>
-      <c r="L1" s="41">
+      <c r="L1" s="35">
         <v>41214</v>
       </c>
-      <c r="M1" s="41">
+      <c r="M1" s="35">
         <v>41244</v>
       </c>
-      <c r="N1" s="41">
+      <c r="N1" s="35">
         <v>41275</v>
       </c>
-      <c r="O1" s="41">
+      <c r="O1" s="35">
         <v>41306</v>
       </c>
-      <c r="P1" s="41">
+      <c r="P1" s="35">
         <v>41334</v>
       </c>
-      <c r="Q1" s="41">
+      <c r="Q1" s="35">
         <v>41365</v>
       </c>
-      <c r="R1" s="41">
+      <c r="R1" s="35">
         <v>41395</v>
       </c>
-      <c r="S1" s="41">
+      <c r="S1" s="35">
         <v>41426</v>
       </c>
-      <c r="T1" s="41">
+      <c r="T1" s="35">
         <v>41456</v>
       </c>
-      <c r="U1" s="41">
+      <c r="U1" s="35">
         <v>41487</v>
       </c>
-      <c r="V1" s="41">
+      <c r="V1" s="35">
         <v>41518</v>
       </c>
-      <c r="W1" s="41">
+      <c r="W1" s="35">
         <v>41548</v>
       </c>
-      <c r="X1" s="41">
+      <c r="X1" s="35">
         <v>41579</v>
       </c>
-      <c r="Y1" s="41">
+      <c r="Y1" s="35">
         <v>41609</v>
       </c>
-      <c r="Z1" s="41">
+      <c r="Z1" s="35">
         <v>41640</v>
       </c>
-      <c r="AA1" s="41">
+      <c r="AA1" s="35">
         <v>41671</v>
       </c>
-      <c r="AB1" s="41">
+      <c r="AB1" s="35">
         <v>41699</v>
       </c>
-      <c r="AC1" s="41">
+      <c r="AC1" s="35">
         <v>41730</v>
       </c>
-      <c r="AD1" s="41">
+      <c r="AD1" s="35">
         <v>41760</v>
       </c>
-      <c r="AE1" s="41">
+      <c r="AE1" s="35">
         <v>41791</v>
       </c>
-      <c r="AF1" s="41">
+      <c r="AF1" s="35">
         <v>41821</v>
       </c>
-      <c r="AG1" s="41">
+      <c r="AG1" s="35">
         <v>41852</v>
       </c>
-      <c r="AH1" s="41">
+      <c r="AH1" s="35">
         <v>41883</v>
       </c>
-      <c r="AI1" s="41">
+      <c r="AI1" s="35">
         <v>41913</v>
       </c>
-      <c r="AJ1" s="41">
+      <c r="AJ1" s="35">
         <v>41944</v>
       </c>
-      <c r="AK1" s="41">
+      <c r="AK1" s="35">
         <v>41974</v>
       </c>
-      <c r="AL1" s="41">
+      <c r="AL1" s="35">
         <v>42005</v>
       </c>
-      <c r="AN1" s="41">
+      <c r="AN1" s="35">
         <v>42036</v>
       </c>
-      <c r="AO1" s="41">
+      <c r="AO1" s="35">
         <v>42064</v>
       </c>
-      <c r="AP1" s="41">
+      <c r="AP1" s="35">
         <v>42095</v>
       </c>
-      <c r="AQ1" s="41">
+      <c r="AQ1" s="35">
         <v>42125</v>
       </c>
-      <c r="AR1" s="41">
+      <c r="AR1" s="35">
         <v>42156</v>
       </c>
-      <c r="AS1" s="41">
+      <c r="AS1" s="35">
         <v>42186</v>
       </c>
-      <c r="AT1" s="41">
+      <c r="AT1" s="35">
         <v>42217</v>
       </c>
-      <c r="AU1" s="41">
+      <c r="AU1" s="35">
         <v>42248</v>
       </c>
-      <c r="AV1" s="41">
+      <c r="AV1" s="35">
         <v>42278</v>
       </c>
-      <c r="AW1" s="41">
+      <c r="AW1" s="35">
         <v>42309</v>
       </c>
-      <c r="AX1" s="41">
+      <c r="AX1" s="35">
         <v>42339</v>
       </c>
-      <c r="AY1" s="41">
+      <c r="AY1" s="35">
         <v>42370</v>
       </c>
-      <c r="AZ1" s="41">
+      <c r="AZ1" s="35">
         <v>42401</v>
       </c>
-      <c r="BA1" s="41">
+      <c r="BA1" s="35">
         <v>42430</v>
       </c>
-      <c r="BB1" s="41">
+      <c r="BB1" s="35">
         <v>42461</v>
       </c>
-      <c r="BC1" s="41">
+      <c r="BC1" s="35">
         <v>42491</v>
       </c>
-      <c r="BD1" s="41">
+      <c r="BD1" s="35">
         <v>42522</v>
       </c>
-      <c r="BE1" s="41">
+      <c r="BE1" s="35">
         <v>42552</v>
       </c>
-      <c r="BF1" s="41">
+      <c r="BF1" s="35">
         <v>42583</v>
       </c>
-      <c r="BG1" s="41">
+      <c r="BG1" s="35">
         <v>42614</v>
       </c>
-      <c r="BH1" s="41">
+      <c r="BH1" s="35">
         <v>42644</v>
       </c>
-      <c r="BI1" s="41">
+      <c r="BI1" s="35">
         <v>42675</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="28.5">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="37">
         <v>0.43740000000000001</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="37">
         <v>0.44</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="37">
         <v>0.44729999999999998</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="37">
         <v>0.46970000000000001</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="37">
         <v>0.46929999999999999</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="37">
         <v>0.43930000000000002</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="37">
         <v>0.439</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="37">
         <v>0.44790000000000002</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="37">
         <v>0.44109999999999999</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="37">
         <v>0.45519999999999999</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="37">
         <v>0.4541</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="37">
         <v>0.43480000000000002</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="37">
         <v>0.43519999999999998</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="37">
         <v>0.45069999999999999</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="37">
         <v>0.43890000000000001</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="Q2" s="37">
         <v>0.43390000000000001</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="37">
         <v>0.43619999999999998</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="37">
         <v>0.41589999999999999</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="37">
         <v>0.42209999999999998</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="37">
         <v>0.42599999999999999</v>
       </c>
-      <c r="V2" s="43">
+      <c r="V2" s="37">
         <v>0.40310000000000001</v>
       </c>
-      <c r="W2" s="43">
+      <c r="W2" s="37">
         <v>0.40660000000000002</v>
       </c>
-      <c r="X2" s="43">
+      <c r="X2" s="37">
         <v>0.40570000000000001</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="37">
         <v>0.38269999999999998</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="37">
         <v>0.37769999999999998</v>
       </c>
-      <c r="AA2" s="43">
+      <c r="AA2" s="37">
         <v>0.3997</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="37">
         <v>0.3785</v>
       </c>
-      <c r="AC2" s="43">
+      <c r="AC2" s="37">
         <v>0.38080000000000003</v>
       </c>
-      <c r="AD2" s="43">
+      <c r="AD2" s="37">
         <v>0.37280000000000002</v>
       </c>
-      <c r="AE2" s="43">
+      <c r="AE2" s="37">
         <v>0.37030000000000002</v>
       </c>
-      <c r="AF2" s="43">
+      <c r="AF2" s="37">
         <v>0.37080000000000002</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AG2" s="37">
         <v>0.37540000000000001</v>
       </c>
-      <c r="AH2" s="43">
+      <c r="AH2" s="37">
         <v>0.36580000000000001</v>
       </c>
-      <c r="AI2" s="43">
+      <c r="AI2" s="37">
         <v>0.37190000000000001</v>
       </c>
-      <c r="AJ2" s="43">
+      <c r="AJ2" s="37">
         <v>0.3841</v>
       </c>
-      <c r="AK2" s="43">
+      <c r="AK2" s="37">
         <v>0.35630000000000001</v>
       </c>
-      <c r="AL2" s="43">
+      <c r="AL2" s="37">
         <v>0.36159999999999998</v>
       </c>
       <c r="AM2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AN2" s="43">
+      <c r="AN2" s="37">
         <v>0.3372</v>
       </c>
-      <c r="AO2" s="43">
+      <c r="AO2" s="37">
         <v>0.37790000000000001</v>
       </c>
-      <c r="AP2" s="43">
+      <c r="AP2" s="37">
         <v>0.36580000000000001</v>
       </c>
-      <c r="AQ2" s="43">
+      <c r="AQ2" s="37">
         <v>0.37240000000000001</v>
       </c>
-      <c r="AR2" s="43">
+      <c r="AR2" s="37">
         <v>0.37109999999999999</v>
       </c>
-      <c r="AS2" s="43">
+      <c r="AS2" s="37">
         <v>0.37190000000000001</v>
       </c>
-      <c r="AT2" s="43">
+      <c r="AT2" s="37">
         <v>0.36870000000000003</v>
       </c>
-      <c r="AU2" s="43">
+      <c r="AU2" s="37">
         <v>0.37240000000000001</v>
       </c>
-      <c r="AV2" s="43">
+      <c r="AV2" s="37">
         <v>0.35620000000000002</v>
       </c>
-      <c r="AW2" s="43">
+      <c r="AW2" s="37">
         <v>0.35320000000000001</v>
       </c>
-      <c r="AX2" s="43">
+      <c r="AX2" s="37">
         <v>0.34189999999999998</v>
       </c>
-      <c r="AY2" s="43">
+      <c r="AY2" s="37">
         <v>0.34899999999999998</v>
       </c>
-      <c r="AZ2" s="43">
+      <c r="AZ2" s="37">
         <v>0.35520000000000002</v>
       </c>
-      <c r="BA2" s="43">
+      <c r="BA2" s="37">
         <v>0.35110000000000002</v>
       </c>
-      <c r="BB2" s="43">
+      <c r="BB2" s="37">
         <v>0.32869999999999999</v>
       </c>
-      <c r="BC2" s="43">
+      <c r="BC2" s="37">
         <v>0.34449999999999997</v>
       </c>
-      <c r="BD2" s="43">
+      <c r="BD2" s="37">
         <v>0.34</v>
       </c>
-      <c r="BE2" s="43">
+      <c r="BE2" s="37">
         <v>0.35110000000000002</v>
       </c>
-      <c r="BF2" s="43">
+      <c r="BF2" s="37">
         <v>0.36840000000000001</v>
       </c>
-      <c r="BG2" s="43">
+      <c r="BG2" s="37">
         <v>0.3483</v>
       </c>
-      <c r="BH2" s="43">
+      <c r="BH2" s="37">
         <v>0.33510000000000001</v>
       </c>
-      <c r="BI2" s="43">
+      <c r="BI2" s="37">
         <v>0.32729999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="28.5">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>0.10349999999999999</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>0.1043</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <v>0.1026</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="39">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="39">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="39">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="39">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="39">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="39">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="K3" s="45">
+      <c r="K3" s="39">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="39">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="39">
         <v>8.9300000000000004E-2</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="39">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="39">
         <v>9.4E-2</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="39">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="39">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="39">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="S3" s="45">
+      <c r="S3" s="39">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="T3" s="45">
+      <c r="T3" s="39">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="U3" s="45">
+      <c r="U3" s="39">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="V3" s="45">
+      <c r="V3" s="39">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="W3" s="45">
+      <c r="W3" s="39">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="X3" s="45">
+      <c r="X3" s="39">
         <v>9.69E-2</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="39">
         <v>0.1023</v>
       </c>
-      <c r="Z3" s="45">
+      <c r="Z3" s="39">
         <v>0.1047</v>
       </c>
-      <c r="AA3" s="45">
+      <c r="AA3" s="39">
         <v>0.1109</v>
       </c>
-      <c r="AB3" s="45">
+      <c r="AB3" s="39">
         <v>0.1069</v>
       </c>
-      <c r="AC3" s="45">
+      <c r="AC3" s="39">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AD3" s="45">
+      <c r="AD3" s="39">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AE3" s="45">
+      <c r="AE3" s="39">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="AF3" s="45">
+      <c r="AF3" s="39">
         <v>0.09</v>
       </c>
-      <c r="AG3" s="45">
+      <c r="AG3" s="39">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="AH3" s="45">
+      <c r="AH3" s="39">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="AI3" s="45">
+      <c r="AI3" s="39">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="AJ3" s="45">
+      <c r="AJ3" s="39">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="AK3" s="45">
+      <c r="AK3" s="39">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AL3" s="45">
+      <c r="AL3" s="39">
         <v>0.10100000000000001</v>
       </c>
       <c r="AM3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AN3" s="45">
+      <c r="AN3" s="39">
         <v>0.1067</v>
       </c>
-      <c r="AO3" s="45">
+      <c r="AO3" s="39">
         <v>0.1188</v>
       </c>
-      <c r="AP3" s="45">
+      <c r="AP3" s="39">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="AQ3" s="45">
+      <c r="AQ3" s="39">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="AR3" s="45">
+      <c r="AR3" s="39">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="AS3" s="45">
+      <c r="AS3" s="39">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="AT3" s="45">
+      <c r="AT3" s="39">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AU3" s="45">
+      <c r="AU3" s="39">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="AV3" s="45">
+      <c r="AV3" s="39">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="AW3" s="45">
+      <c r="AW3" s="39">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="AX3" s="45">
+      <c r="AX3" s="39">
         <v>9.35E-2</v>
       </c>
-      <c r="AY3" s="45">
+      <c r="AY3" s="39">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="AZ3" s="45">
+      <c r="AZ3" s="39">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="BA3" s="45">
+      <c r="BA3" s="39">
         <v>0.1037</v>
       </c>
-      <c r="BB3" s="45">
+      <c r="BB3" s="39">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="BC3" s="45">
+      <c r="BC3" s="39">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="BD3" s="45">
+      <c r="BD3" s="39">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="BE3" s="45">
+      <c r="BE3" s="39">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="BF3" s="45">
+      <c r="BF3" s="39">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="BG3" s="45">
+      <c r="BG3" s="39">
         <v>8.48E-2</v>
       </c>
-      <c r="BH3" s="45">
+      <c r="BH3" s="39">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="BI3" s="45">
+      <c r="BI3" s="39">
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="28.5">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="37">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="37">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="37">
         <v>3.32E-2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="37">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="37">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="37">
         <v>3.09E-2</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="37">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="37">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="37">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="37">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="37">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="37">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="37">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="37">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="37">
         <v>3.44E-2</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="37">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="U4" s="43">
+      <c r="U4" s="37">
         <v>4.07E-2</v>
       </c>
-      <c r="V4" s="43">
+      <c r="V4" s="37">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W4" s="43">
+      <c r="W4" s="37">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="X4" s="43">
+      <c r="X4" s="37">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="Y4" s="43">
+      <c r="Y4" s="37">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="Z4" s="43">
+      <c r="Z4" s="37">
         <v>5.57E-2</v>
       </c>
-      <c r="AA4" s="43">
+      <c r="AA4" s="37">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="AB4" s="43">
+      <c r="AB4" s="37">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="AC4" s="43">
+      <c r="AC4" s="37">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="AD4" s="43">
+      <c r="AD4" s="37">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="AE4" s="43">
+      <c r="AE4" s="37">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AF4" s="43">
+      <c r="AF4" s="37">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="AG4" s="43">
+      <c r="AG4" s="37">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="AH4" s="43">
+      <c r="AH4" s="37">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="AI4" s="43">
+      <c r="AI4" s="37">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="AJ4" s="43">
+      <c r="AJ4" s="37">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="AK4" s="43">
+      <c r="AK4" s="37">
         <v>0.10340000000000001</v>
       </c>
-      <c r="AL4" s="43">
+      <c r="AL4" s="37">
         <v>8.0799999999999997E-2</v>
       </c>
       <c r="AM4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AN4" s="43">
+      <c r="AN4" s="37">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="AO4" s="43">
+      <c r="AO4" s="37">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="AP4" s="43">
+      <c r="AP4" s="37">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="AQ4" s="43">
+      <c r="AQ4" s="37">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="AR4" s="43">
+      <c r="AR4" s="37">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="AS4" s="43">
+      <c r="AS4" s="37">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="AT4" s="43">
+      <c r="AT4" s="37">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="AU4" s="43">
+      <c r="AU4" s="37">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AV4" s="43">
+      <c r="AV4" s="37">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="AW4" s="43">
+      <c r="AW4" s="37">
         <v>0.1</v>
       </c>
-      <c r="AX4" s="43">
+      <c r="AX4" s="37">
         <v>0.1051</v>
       </c>
-      <c r="AY4" s="43">
+      <c r="AY4" s="37">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="AZ4" s="43">
+      <c r="AZ4" s="37">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="BA4" s="43">
+      <c r="BA4" s="37">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="BB4" s="43">
+      <c r="BB4" s="37">
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="BC4" s="43">
+      <c r="BC4" s="37">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="BD4" s="43">
+      <c r="BD4" s="37">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="BE4" s="43">
+      <c r="BE4" s="37">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="BF4" s="43">
+      <c r="BF4" s="37">
         <v>8.43E-2</v>
       </c>
-      <c r="BG4" s="43">
+      <c r="BG4" s="37">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="BH4" s="43">
+      <c r="BH4" s="37">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="BI4" s="43">
+      <c r="BI4" s="37">
         <v>0.1084</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="28.5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="39">
         <v>3.44E-2</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="39">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="39">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="39">
         <v>0.1079</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="39">
         <v>0.10730000000000001</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="39">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="39">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="39">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="39">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="39">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="39">
         <v>2.63E-2</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="39">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="39">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="39">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="39">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="39">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="39">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="39">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="V5" s="45">
+      <c r="V5" s="39">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="W5" s="45">
+      <c r="W5" s="39">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="39">
         <v>4.02E-2</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="39">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="Z5" s="45">
+      <c r="Z5" s="39">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="AA5" s="39">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AB5" s="45">
+      <c r="AB5" s="39">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="AC5" s="45">
+      <c r="AC5" s="39">
         <v>5.67E-2</v>
       </c>
-      <c r="AD5" s="45">
+      <c r="AD5" s="39">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="AE5" s="45">
+      <c r="AE5" s="39">
         <v>0.1061</v>
       </c>
-      <c r="AF5" s="45">
+      <c r="AF5" s="39">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="AG5" s="45">
+      <c r="AG5" s="39">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="AH5" s="45">
+      <c r="AH5" s="39">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="AI5" s="45">
+      <c r="AI5" s="39">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AJ5" s="39">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AK5" s="39">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="AL5" s="45">
+      <c r="AL5" s="39">
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="AM5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AN5" s="45">
+      <c r="AN5" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO5" s="45">
+      <c r="AO5" s="39">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="AP5" s="45">
+      <c r="AP5" s="39">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="AQ5" s="45">
+      <c r="AQ5" s="39">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="AR5" s="45">
+      <c r="AR5" s="39">
         <v>0.1052</v>
       </c>
-      <c r="AS5" s="45">
+      <c r="AS5" s="39">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="AT5" s="45">
+      <c r="AT5" s="39">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="AU5" s="45">
+      <c r="AU5" s="39">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="AV5" s="45">
+      <c r="AV5" s="39">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="AW5" s="45">
+      <c r="AW5" s="39">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="AX5" s="45">
+      <c r="AX5" s="39">
         <v>2.23E-2</v>
       </c>
-      <c r="AY5" s="45">
+      <c r="AY5" s="39">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="AZ5" s="45">
+      <c r="AZ5" s="39">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="BA5" s="45">
+      <c r="BA5" s="39">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="BB5" s="45">
+      <c r="BB5" s="39">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="BC5" s="45">
+      <c r="BC5" s="39">
         <v>0.10639999999999999</v>
       </c>
-      <c r="BD5" s="45">
+      <c r="BD5" s="39">
         <v>0.11409999999999999</v>
       </c>
-      <c r="BE5" s="45">
+      <c r="BE5" s="39">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="BF5" s="45">
+      <c r="BF5" s="39">
         <v>6.93E-2</v>
       </c>
-      <c r="BG5" s="45">
+      <c r="BG5" s="39">
         <v>5.45E-2</v>
       </c>
-      <c r="BH5" s="45">
+      <c r="BH5" s="39">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="BI5" s="45">
+      <c r="BI5" s="39">
         <v>2.86E-2</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="28.5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="37">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="37">
         <v>0.1066</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="37">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <v>9.11E-2</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="37">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="37">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="37">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="37">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="37">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="37">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="37">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="37">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="37">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="37">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="37">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="37">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="37">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="37">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="37">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="V6" s="43">
+      <c r="V6" s="37">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W6" s="43">
+      <c r="W6" s="37">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="37">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="37">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6" s="37">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6" s="37">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="AB6" s="43">
+      <c r="AB6" s="37">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="AC6" s="43">
+      <c r="AC6" s="37">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="AD6" s="43">
+      <c r="AD6" s="37">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="AE6" s="43">
+      <c r="AE6" s="37">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="AF6" s="43">
+      <c r="AF6" s="37">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="AG6" s="43">
+      <c r="AG6" s="37">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AH6" s="43">
+      <c r="AH6" s="37">
         <v>5.79E-2</v>
       </c>
-      <c r="AI6" s="43">
+      <c r="AI6" s="37">
         <v>5.28E-2</v>
       </c>
-      <c r="AJ6" s="43">
+      <c r="AJ6" s="37">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="AK6" s="43">
+      <c r="AK6" s="37">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="AL6" s="43">
+      <c r="AL6" s="37">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AN6" s="43">
+      <c r="AN6" s="37">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="AO6" s="43">
+      <c r="AO6" s="37">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="AP6" s="43">
+      <c r="AP6" s="37">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="AQ6" s="43">
+      <c r="AQ6" s="37">
         <v>4.36E-2</v>
       </c>
-      <c r="AR6" s="43">
+      <c r="AR6" s="37">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AS6" s="43">
+      <c r="AS6" s="37">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="AT6" s="43">
+      <c r="AT6" s="37">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="AU6" s="43">
+      <c r="AU6" s="37">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="AV6" s="43">
+      <c r="AV6" s="37">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="AW6" s="43">
+      <c r="AW6" s="37">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="AX6" s="43">
+      <c r="AX6" s="37">
         <v>3.32E-2</v>
       </c>
-      <c r="AY6" s="43">
+      <c r="AY6" s="37">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="AZ6" s="43">
+      <c r="AZ6" s="37">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="BA6" s="43">
+      <c r="BA6" s="37">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="BB6" s="43">
+      <c r="BB6" s="37">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="BC6" s="43">
+      <c r="BC6" s="37">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="BD6" s="43">
+      <c r="BD6" s="37">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="BE6" s="43">
+      <c r="BE6" s="37">
         <v>2.86E-2</v>
       </c>
-      <c r="BF6" s="43">
+      <c r="BF6" s="37">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="BG6" s="43">
+      <c r="BG6" s="37">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="BH6" s="43">
+      <c r="BH6" s="37">
         <v>3.32E-2</v>
       </c>
-      <c r="BI6" s="43">
+      <c r="BI6" s="37">
         <v>2.81E-2</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="28.5">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>9.64E-2</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="39">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="39">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="39">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="39">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="39">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="39">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="39">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="39">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="39">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="39">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="39">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="39">
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="39">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="39">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="39">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="39">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="39">
         <v>2.29E-2</v>
       </c>
-      <c r="T7" s="45">
+      <c r="T7" s="39">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="39">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="V7" s="45">
+      <c r="V7" s="39">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="W7" s="45">
+      <c r="W7" s="39">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="X7" s="45">
+      <c r="X7" s="39">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="Y7" s="45">
+      <c r="Y7" s="39">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Z7" s="45">
+      <c r="Z7" s="39">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="AA7" s="45">
+      <c r="AA7" s="39">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="AB7" s="45">
+      <c r="AB7" s="39">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="AC7" s="45">
+      <c r="AC7" s="39">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="AD7" s="45">
+      <c r="AD7" s="39">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AE7" s="39">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="AF7" s="45">
+      <c r="AF7" s="39">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="AG7" s="45">
+      <c r="AG7" s="39">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="AH7" s="45">
+      <c r="AH7" s="39">
         <v>2.7E-2</v>
       </c>
-      <c r="AI7" s="45">
+      <c r="AI7" s="39">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="AJ7" s="45">
+      <c r="AJ7" s="39">
         <v>5.45E-2</v>
       </c>
-      <c r="AK7" s="45">
+      <c r="AK7" s="39">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="AL7" s="45">
+      <c r="AL7" s="39">
         <v>6.2199999999999998E-2</v>
       </c>
       <c r="AM7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AN7" s="45">
+      <c r="AN7" s="39">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="AO7" s="45">
+      <c r="AO7" s="39">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="AP7" s="45">
+      <c r="AP7" s="39">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="AQ7" s="45">
+      <c r="AQ7" s="39">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AR7" s="45">
+      <c r="AR7" s="39">
         <v>1.49E-2</v>
       </c>
-      <c r="AS7" s="45">
+      <c r="AS7" s="39">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="AT7" s="45">
+      <c r="AT7" s="39">
         <v>1.49E-2</v>
       </c>
-      <c r="AU7" s="45">
+      <c r="AU7" s="39">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="AV7" s="45">
+      <c r="AV7" s="39">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="AW7" s="45">
+      <c r="AW7" s="39">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="AX7" s="45">
+      <c r="AX7" s="39">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="AY7" s="45">
+      <c r="AY7" s="39">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="AZ7" s="45">
+      <c r="AZ7" s="39">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="BA7" s="45">
+      <c r="BA7" s="39">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="BB7" s="45">
+      <c r="BB7" s="39">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="BC7" s="45">
+      <c r="BC7" s="39">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="BD7" s="45">
+      <c r="BD7" s="39">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="BE7" s="45">
+      <c r="BE7" s="39">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="BF7" s="45">
+      <c r="BF7" s="39">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="BG7" s="45">
+      <c r="BG7" s="39">
         <v>2.41E-2</v>
       </c>
-      <c r="BH7" s="45">
+      <c r="BH7" s="39">
         <v>3.1E-2</v>
       </c>
-      <c r="BI7" s="45">
+      <c r="BI7" s="39">
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:61" ht="14.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="37">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="37">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="37">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="37">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="37">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="37">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="37">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="37">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="37">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="37">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="37">
         <v>0.1024</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="37">
         <v>0.1246</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="37">
         <v>0.1215</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="37">
         <v>0.1099</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="37">
         <v>0.1144</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="37">
         <v>0.1249</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="37">
         <v>0.115</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="37">
         <v>0.1195</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="37">
         <v>0.12839999999999999</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="37">
         <v>0.13339999999999999</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V8" s="37">
         <v>0.14180000000000001</v>
       </c>
-      <c r="W8" s="43">
+      <c r="W8" s="37">
         <v>0.1391</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="37">
         <v>0.14729999999999999</v>
       </c>
-      <c r="Y8" s="43">
+      <c r="Y8" s="37">
         <v>0.16880000000000001</v>
       </c>
-      <c r="Z8" s="43">
+      <c r="Z8" s="37">
         <v>0.1696</v>
       </c>
-      <c r="AA8" s="43">
+      <c r="AA8" s="37">
         <v>0.16139999999999999</v>
       </c>
-      <c r="AB8" s="43">
+      <c r="AB8" s="37">
         <v>0.16950000000000001</v>
       </c>
-      <c r="AC8" s="43">
+      <c r="AC8" s="37">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AD8" s="43">
+      <c r="AD8" s="37">
         <v>0.16439999999999999</v>
       </c>
-      <c r="AE8" s="43">
+      <c r="AE8" s="37">
         <v>0.14430000000000001</v>
       </c>
-      <c r="AF8" s="43">
+      <c r="AF8" s="37">
         <v>0.15129999999999999</v>
       </c>
-      <c r="AG8" s="43">
+      <c r="AG8" s="37">
         <v>0.15709999999999999</v>
       </c>
-      <c r="AH8" s="43">
+      <c r="AH8" s="37">
         <v>0.1656</v>
       </c>
-      <c r="AI8" s="43">
+      <c r="AI8" s="37">
         <v>0.17330000000000001</v>
       </c>
-      <c r="AJ8" s="43">
+      <c r="AJ8" s="37">
         <v>0.17829999999999999</v>
       </c>
-      <c r="AK8" s="43">
+      <c r="AK8" s="37">
         <v>0.19600000000000001</v>
       </c>
-      <c r="AL8" s="43">
+      <c r="AL8" s="37">
         <v>0.1953</v>
       </c>
       <c r="AM8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AN8" s="43">
+      <c r="AN8" s="37">
         <v>0.2165</v>
       </c>
-      <c r="AO8" s="43">
+      <c r="AO8" s="37">
         <v>0.17730000000000001</v>
       </c>
-      <c r="AP8" s="43">
+      <c r="AP8" s="37">
         <v>0.18329999999999999</v>
       </c>
-      <c r="AQ8" s="43">
+      <c r="AQ8" s="37">
         <v>0.1903</v>
       </c>
-      <c r="AR8" s="43">
+      <c r="AR8" s="37">
         <v>0.17730000000000001</v>
       </c>
-      <c r="AS8" s="43">
+      <c r="AS8" s="37">
         <v>0.1923</v>
       </c>
-      <c r="AT8" s="43">
+      <c r="AT8" s="37">
         <v>0.20810000000000001</v>
       </c>
-      <c r="AU8" s="43">
+      <c r="AU8" s="37">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AV8" s="43">
+      <c r="AV8" s="37">
         <v>0.21870000000000001</v>
       </c>
-      <c r="AW8" s="43">
+      <c r="AW8" s="37">
         <v>0.23860000000000001</v>
       </c>
-      <c r="AX8" s="43">
+      <c r="AX8" s="37">
         <v>0.25679999999999997</v>
       </c>
-      <c r="AY8" s="43">
+      <c r="AY8" s="37">
         <v>0.245</v>
       </c>
-      <c r="AZ8" s="43">
+      <c r="AZ8" s="37">
         <v>0.26440000000000002</v>
       </c>
-      <c r="BA8" s="43">
+      <c r="BA8" s="37">
         <v>0.25080000000000002</v>
       </c>
-      <c r="BB8" s="43">
+      <c r="BB8" s="37">
         <v>0.23880000000000001</v>
       </c>
-      <c r="BC8" s="43">
+      <c r="BC8" s="37">
         <v>0.21190000000000001</v>
       </c>
-      <c r="BD8" s="43">
+      <c r="BD8" s="37">
         <v>0.21049999999999999</v>
       </c>
-      <c r="BE8" s="43">
+      <c r="BE8" s="37">
         <v>0.22120000000000001</v>
       </c>
-      <c r="BF8" s="43">
+      <c r="BF8" s="37">
         <v>0.21959999999999999</v>
       </c>
-      <c r="BG8" s="43">
+      <c r="BG8" s="37">
         <v>0.2349</v>
       </c>
-      <c r="BH8" s="43">
+      <c r="BH8" s="37">
         <v>0.24460000000000001</v>
       </c>
-      <c r="BI8" s="43">
+      <c r="BI8" s="37">
         <v>0.26869999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:61" ht="28.5">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="39">
         <v>7.46E-2</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="39">
         <v>0.1162</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="39">
         <v>0.1069</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="39">
         <v>0.1062</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="39">
         <v>0.1056</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="39">
         <v>0.1106</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="39">
         <v>0.10150000000000001</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="39">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="39">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="39">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="39">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="39">
         <v>0.1</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="39">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="39">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="39">
         <v>0.1042</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="39">
         <v>9.69E-2</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="39">
         <v>0.1022</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="39">
         <v>0.1026</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="39">
         <v>0.1032</v>
       </c>
-      <c r="V9" s="45">
+      <c r="V9" s="39">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="W9" s="45">
+      <c r="W9" s="39">
         <v>0.10050000000000001</v>
       </c>
-      <c r="X9" s="45">
+      <c r="X9" s="39">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="Y9" s="39">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="39">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="39">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="AB9" s="45">
+      <c r="AB9" s="39">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="AC9" s="45">
+      <c r="AC9" s="39">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="AD9" s="45">
+      <c r="AD9" s="39">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="AE9" s="45">
+      <c r="AE9" s="39">
         <v>0.1041</v>
       </c>
-      <c r="AF9" s="45">
+      <c r="AF9" s="39">
         <v>0.1081</v>
       </c>
-      <c r="AG9" s="45">
+      <c r="AG9" s="39">
         <v>0.1046</v>
       </c>
-      <c r="AH9" s="45">
+      <c r="AH9" s="39">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="AI9" s="45">
+      <c r="AI9" s="39">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="AJ9" s="45">
+      <c r="AJ9" s="39">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="AK9" s="45">
+      <c r="AK9" s="39">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="AL9" s="45">
+      <c r="AL9" s="39">
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="AM9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AN9" s="45">
+      <c r="AN9" s="39">
         <v>0.1043</v>
       </c>
-      <c r="AO9" s="45">
+      <c r="AO9" s="39">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="AP9" s="45">
+      <c r="AP9" s="39">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="AQ9" s="45">
+      <c r="AQ9" s="39">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AR9" s="45">
+      <c r="AR9" s="39">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="AS9" s="45">
+      <c r="AS9" s="39">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="AT9" s="45">
+      <c r="AT9" s="39">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="AU9" s="45">
+      <c r="AU9" s="39">
         <v>8.14E-2</v>
       </c>
-      <c r="AV9" s="45">
+      <c r="AV9" s="39">
         <v>9.06E-2</v>
       </c>
-      <c r="AW9" s="45">
+      <c r="AW9" s="39">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AX9" s="45">
+      <c r="AX9" s="39">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="AY9" s="45">
+      <c r="AY9" s="39">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="AZ9" s="45">
+      <c r="AZ9" s="39">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="BA9" s="45">
+      <c r="BA9" s="39">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="BB9" s="45">
+      <c r="BB9" s="39">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="BC9" s="45">
+      <c r="BC9" s="39">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="BD9" s="45">
+      <c r="BD9" s="39">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="BE9" s="45">
+      <c r="BE9" s="39">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="BF9" s="45">
+      <c r="BF9" s="39">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="BG9" s="45">
+      <c r="BG9" s="39">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="BH9" s="45">
+      <c r="BH9" s="39">
         <v>8.43E-2</v>
       </c>
-      <c r="BI9" s="45">
+      <c r="BI9" s="39">
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:61" ht="29.25" thickBot="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="37">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="37">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="37">
         <v>3.09E-2</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="37">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="37">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="37">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="37">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="37">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="37">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="37">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="37">
         <v>2.7E-2</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="37">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="37">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="37">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="37">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="37">
         <v>4.19E-2</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="37">
         <v>0.05</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="37">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="37">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="37">
         <v>4.07E-2</v>
       </c>
-      <c r="W10" s="43">
+      <c r="W10" s="37">
         <v>3.56E-2</v>
       </c>
-      <c r="X10" s="43">
+      <c r="X10" s="37">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="Y10" s="43">
+      <c r="Y10" s="37">
         <v>2.53E-2</v>
       </c>
-      <c r="Z10" s="43">
+      <c r="Z10" s="37">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="AA10" s="43">
+      <c r="AA10" s="37">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="AB10" s="43">
+      <c r="AB10" s="37">
         <v>3.44E-2</v>
       </c>
-      <c r="AC10" s="43">
+      <c r="AC10" s="37">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="AD10" s="43">
+      <c r="AD10" s="37">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AE10" s="43">
+      <c r="AE10" s="37">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="AF10" s="43">
+      <c r="AF10" s="37">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="AG10" s="43">
+      <c r="AG10" s="37">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="AH10" s="43">
+      <c r="AH10" s="37">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="AI10" s="43">
+      <c r="AI10" s="37">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="AJ10" s="43">
+      <c r="AJ10" s="37">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="AK10" s="43">
+      <c r="AK10" s="37">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="AL10" s="43">
+      <c r="AL10" s="37">
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="AM10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AN10" s="43">
+      <c r="AN10" s="37">
         <v>3.04E-2</v>
       </c>
-      <c r="AO10" s="43">
+      <c r="AO10" s="37">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="AP10" s="43">
+      <c r="AP10" s="37">
         <v>4.24E-2</v>
       </c>
-      <c r="AQ10" s="43">
+      <c r="AQ10" s="37">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="AR10" s="43">
+      <c r="AR10" s="37">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="AS10" s="43">
+      <c r="AS10" s="37">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="AT10" s="43">
+      <c r="AT10" s="37">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="AU10" s="43">
+      <c r="AU10" s="37">
         <v>4.19E-2</v>
       </c>
-      <c r="AV10" s="43">
+      <c r="AV10" s="37">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="AW10" s="43">
+      <c r="AW10" s="37">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="AX10" s="43">
+      <c r="AX10" s="37">
         <v>2.69E-2</v>
       </c>
-      <c r="AY10" s="43">
+      <c r="AY10" s="37">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="AZ10" s="43">
+      <c r="AZ10" s="37">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="BA10" s="43">
+      <c r="BA10" s="37">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="BB10" s="43">
+      <c r="BB10" s="37">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="BC10" s="43">
+      <c r="BC10" s="37">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="BD10" s="43">
+      <c r="BD10" s="37">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="BE10" s="43">
+      <c r="BE10" s="37">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="BF10" s="43">
+      <c r="BF10" s="37">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="BG10" s="43">
+      <c r="BG10" s="37">
         <v>4.07E-2</v>
       </c>
-      <c r="BH10" s="43">
+      <c r="BH10" s="37">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="BI10" s="43">
+      <c r="BI10" s="37">
         <v>3.32E-2</v>
       </c>
     </row>
@@ -10549,8 +10494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FV12"/>
   <sheetViews>
-    <sheetView topLeftCell="FL1" workbookViewId="0">
-      <selection activeCell="FM3" sqref="FM3:FM11"/>
+    <sheetView tabSelected="1" topLeftCell="FL1" workbookViewId="0">
+      <selection activeCell="FY10" sqref="FY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11339,49 +11284,49 @@
       <c r="C3" s="6">
         <v>0.50039999999999996</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="27">
         <v>22764128</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="28">
         <v>0.49859999999999999</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="27">
         <v>32050415</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="28">
         <v>0.50309999999999999</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="27">
         <v>32285303</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="28">
         <v>0.53239999999999998</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="27">
         <v>36949144</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="28">
         <v>0.53680000000000005</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="27">
         <v>39496019</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="28">
         <v>0.5111</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -11393,31 +11338,31 @@
       <c r="U3" s="9">
         <v>0.50780000000000003</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="33">
+      <c r="W3" s="27">
         <v>56077380</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="28">
         <v>0.53039999999999998</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="33">
+      <c r="Z3" s="27">
         <v>55573493</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AA3" s="28">
         <v>0.52729999999999999</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="33">
+      <c r="AC3" s="27">
         <v>56199628</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3" s="28">
         <v>0.54790000000000005</v>
       </c>
       <c r="AE3" s="7" t="s">
@@ -11474,31 +11419,31 @@
       <c r="AV3" s="9">
         <v>0.5071</v>
       </c>
-      <c r="AW3" s="23" t="s">
+      <c r="AW3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AX3" s="33">
+      <c r="AX3" s="27">
         <v>95349880</v>
       </c>
-      <c r="AY3" s="34">
+      <c r="AY3" s="28">
         <v>0.52849999999999997</v>
       </c>
-      <c r="AZ3" s="23" t="s">
+      <c r="AZ3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BA3" s="33">
+      <c r="BA3" s="27">
         <v>100067145</v>
       </c>
-      <c r="BB3" s="34">
+      <c r="BB3" s="28">
         <v>0.50319999999999998</v>
       </c>
-      <c r="BC3" s="23" t="s">
+      <c r="BC3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BD3" s="33">
+      <c r="BD3" s="27">
         <v>118730736</v>
       </c>
-      <c r="BE3" s="34">
+      <c r="BE3" s="28">
         <v>0.53120000000000001</v>
       </c>
       <c r="BF3" s="7" t="s">
@@ -11660,7 +11605,7 @@
       <c r="DF3" s="8">
         <v>786697055</v>
       </c>
-      <c r="DG3" s="38">
+      <c r="DG3" s="32">
         <v>1</v>
       </c>
       <c r="DH3" s="7" t="s">
@@ -11669,7 +11614,7 @@
       <c r="DI3" s="8">
         <v>428796895</v>
       </c>
-      <c r="DJ3" s="38">
+      <c r="DJ3" s="32">
         <v>1</v>
       </c>
       <c r="DK3" s="7" t="s">
@@ -11678,7 +11623,7 @@
       <c r="DL3" s="8">
         <v>437648094</v>
       </c>
-      <c r="DM3" s="38">
+      <c r="DM3" s="32">
         <v>0.45</v>
       </c>
       <c r="DN3" s="7" t="s">
@@ -11714,7 +11659,7 @@
       <c r="DX3" s="8">
         <v>1224590715</v>
       </c>
-      <c r="DY3" s="38">
+      <c r="DY3" s="32">
         <v>1</v>
       </c>
       <c r="DZ3" s="7" t="s">
@@ -11759,16 +11704,16 @@
       <c r="EM3" s="8">
         <v>665443555</v>
       </c>
-      <c r="EN3" s="38">
+      <c r="EN3" s="32">
         <v>0.41</v>
       </c>
-      <c r="EO3" s="23" t="s">
+      <c r="EO3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="EP3" s="33">
+      <c r="EP3" s="27">
         <v>635333980</v>
       </c>
-      <c r="EQ3" s="34">
+      <c r="EQ3" s="28">
         <v>0.40899999999999997</v>
       </c>
       <c r="ER3" s="7" t="s">
@@ -11798,40 +11743,40 @@
       <c r="EZ3" s="9">
         <v>0.39219999999999999</v>
       </c>
-      <c r="FA3" s="23" t="s">
+      <c r="FA3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="FB3" s="33">
+      <c r="FB3" s="27">
         <v>915068155</v>
       </c>
-      <c r="FC3" s="34">
+      <c r="FC3" s="28">
         <v>0.41510000000000002</v>
       </c>
-      <c r="FD3" s="23" t="s">
+      <c r="FD3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="FE3" s="33">
+      <c r="FE3" s="27">
         <v>900662800</v>
       </c>
-      <c r="FF3" s="34">
+      <c r="FF3" s="28">
         <v>0.39179999999999998</v>
       </c>
-      <c r="FG3" s="23" t="s">
+      <c r="FG3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="FH3" s="33">
+      <c r="FH3" s="27">
         <v>830459220</v>
       </c>
-      <c r="FI3" s="34">
+      <c r="FI3" s="28">
         <v>0.37940000000000002</v>
       </c>
-      <c r="FJ3" s="23" t="s">
+      <c r="FJ3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="FK3" s="33">
+      <c r="FK3" s="27">
         <v>859138420</v>
       </c>
-      <c r="FL3" s="34">
+      <c r="FL3" s="28">
         <v>0.38879999999999998</v>
       </c>
       <c r="FM3" s="7" t="s">
@@ -12193,7 +12138,7 @@
       <c r="DF4" s="12">
         <v>0</v>
       </c>
-      <c r="DG4" s="35">
+      <c r="DG4" s="29">
         <v>0</v>
       </c>
       <c r="DH4" s="12" t="s">
@@ -12202,7 +12147,7 @@
       <c r="DI4" s="12">
         <v>0</v>
       </c>
-      <c r="DJ4" s="35">
+      <c r="DJ4" s="29">
         <v>0</v>
       </c>
       <c r="DK4" s="12" t="s">
@@ -12247,7 +12192,7 @@
       <c r="DX4" s="12">
         <v>0</v>
       </c>
-      <c r="DY4" s="35">
+      <c r="DY4" s="29">
         <v>0</v>
       </c>
       <c r="DZ4" s="12" t="s">
@@ -12483,7 +12428,7 @@
       <c r="AC5" s="5">
         <v>7177597</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AD5" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE5" s="4" t="s">
@@ -12726,7 +12671,7 @@
       <c r="DF5" s="4">
         <v>0</v>
       </c>
-      <c r="DG5" s="25">
+      <c r="DG5" s="23">
         <v>0</v>
       </c>
       <c r="DH5" s="4" t="s">
@@ -12735,7 +12680,7 @@
       <c r="DI5" s="4">
         <v>0</v>
       </c>
-      <c r="DJ5" s="25">
+      <c r="DJ5" s="23">
         <v>0</v>
       </c>
       <c r="DK5" s="4" t="s">
@@ -12744,7 +12689,7 @@
       <c r="DL5" s="5">
         <v>116658724</v>
       </c>
-      <c r="DM5" s="25">
+      <c r="DM5" s="23">
         <v>0.12</v>
       </c>
       <c r="DN5" s="4" t="s">
@@ -12780,7 +12725,7 @@
       <c r="DX5" s="4">
         <v>0</v>
       </c>
-      <c r="DY5" s="25">
+      <c r="DY5" s="23">
         <v>0</v>
       </c>
       <c r="DZ5" s="4" t="s">
@@ -13259,7 +13204,7 @@
       <c r="DF6" s="12">
         <v>0</v>
       </c>
-      <c r="DG6" s="35">
+      <c r="DG6" s="29">
         <v>0</v>
       </c>
       <c r="DH6" s="12" t="s">
@@ -13268,7 +13213,7 @@
       <c r="DI6" s="12">
         <v>0</v>
       </c>
-      <c r="DJ6" s="35">
+      <c r="DJ6" s="29">
         <v>0</v>
       </c>
       <c r="DK6" s="12" t="s">
@@ -13286,7 +13231,7 @@
       <c r="DO6" s="13">
         <v>75751360</v>
       </c>
-      <c r="DP6" s="35">
+      <c r="DP6" s="29">
         <v>0.08</v>
       </c>
       <c r="DQ6" s="12" t="s">
@@ -13313,7 +13258,7 @@
       <c r="DX6" s="12">
         <v>0</v>
       </c>
-      <c r="DY6" s="35">
+      <c r="DY6" s="29">
         <v>0</v>
       </c>
       <c r="DZ6" s="12" t="s">
@@ -13639,7 +13584,7 @@
       <c r="BG7" s="5">
         <v>14511196</v>
       </c>
-      <c r="BH7" s="25">
+      <c r="BH7" s="23">
         <v>0.06</v>
       </c>
       <c r="BI7" s="4" t="s">
@@ -13792,7 +13737,7 @@
       <c r="DF7" s="4">
         <v>0</v>
       </c>
-      <c r="DG7" s="25">
+      <c r="DG7" s="23">
         <v>0</v>
       </c>
       <c r="DH7" s="4" t="s">
@@ -13801,7 +13746,7 @@
       <c r="DI7" s="4">
         <v>0</v>
       </c>
-      <c r="DJ7" s="25">
+      <c r="DJ7" s="23">
         <v>0</v>
       </c>
       <c r="DK7" s="4" t="s">
@@ -13846,7 +13791,7 @@
       <c r="DX7" s="4">
         <v>0</v>
       </c>
-      <c r="DY7" s="25">
+      <c r="DY7" s="23">
         <v>0</v>
       </c>
       <c r="DZ7" s="4" t="s">
@@ -14325,7 +14270,7 @@
       <c r="DF8" s="12">
         <v>0</v>
       </c>
-      <c r="DG8" s="35">
+      <c r="DG8" s="29">
         <v>0</v>
       </c>
       <c r="DH8" s="12" t="s">
@@ -14334,7 +14279,7 @@
       <c r="DI8" s="12">
         <v>0</v>
       </c>
-      <c r="DJ8" s="35">
+      <c r="DJ8" s="29">
         <v>0</v>
       </c>
       <c r="DK8" s="12" t="s">
@@ -14379,7 +14324,7 @@
       <c r="DX8" s="12">
         <v>0</v>
       </c>
-      <c r="DY8" s="35">
+      <c r="DY8" s="29">
         <v>0</v>
       </c>
       <c r="DZ8" s="12" t="s">
@@ -14858,7 +14803,7 @@
       <c r="DF9" s="4">
         <v>0</v>
       </c>
-      <c r="DG9" s="25">
+      <c r="DG9" s="23">
         <v>0</v>
       </c>
       <c r="DH9" s="4" t="s">
@@ -14867,7 +14812,7 @@
       <c r="DI9" s="4">
         <v>0</v>
       </c>
-      <c r="DJ9" s="25">
+      <c r="DJ9" s="23">
         <v>0</v>
       </c>
       <c r="DK9" s="4" t="s">
@@ -14912,7 +14857,7 @@
       <c r="DX9" s="4">
         <v>0</v>
       </c>
-      <c r="DY9" s="25">
+      <c r="DY9" s="23">
         <v>0</v>
       </c>
       <c r="DZ9" s="4" t="s">
@@ -15391,7 +15336,7 @@
       <c r="DF10" s="12">
         <v>0</v>
       </c>
-      <c r="DG10" s="35">
+      <c r="DG10" s="29">
         <v>0</v>
       </c>
       <c r="DH10" s="12" t="s">
@@ -15400,7 +15345,7 @@
       <c r="DI10" s="12">
         <v>0</v>
       </c>
-      <c r="DJ10" s="35">
+      <c r="DJ10" s="29">
         <v>0</v>
       </c>
       <c r="DK10" s="12" t="s">
@@ -15445,7 +15390,7 @@
       <c r="DX10" s="12">
         <v>0</v>
       </c>
-      <c r="DY10" s="35">
+      <c r="DY10" s="29">
         <v>0</v>
       </c>
       <c r="DZ10" s="12" t="s">
@@ -15924,7 +15869,7 @@
       <c r="DF11" s="17">
         <v>0</v>
       </c>
-      <c r="DG11" s="39">
+      <c r="DG11" s="33">
         <v>0</v>
       </c>
       <c r="DH11" s="17" t="s">
@@ -15933,7 +15878,7 @@
       <c r="DI11" s="17">
         <v>0</v>
       </c>
-      <c r="DJ11" s="39">
+      <c r="DJ11" s="33">
         <v>0</v>
       </c>
       <c r="DK11" s="17" t="s">
@@ -15978,7 +15923,7 @@
       <c r="DX11" s="17">
         <v>0</v>
       </c>
-      <c r="DY11" s="39">
+      <c r="DY11" s="33">
         <v>0</v>
       </c>
       <c r="DZ11" s="17" t="s">
@@ -16122,18 +16067,18 @@
       <c r="FT11" s="17">
         <v>0</v>
       </c>
-      <c r="FU11" s="39">
+      <c r="FU11" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:178" ht="14.25">
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="30">
         <v>0</v>
       </c>
       <c r="H12">
@@ -16172,35 +16117,35 @@
       <c r="BB12">
         <v>0</v>
       </c>
-      <c r="CB12" s="26">
+      <c r="CB12" s="24">
         <v>0</v>
       </c>
-      <c r="CC12" s="36">
+      <c r="CC12" s="30">
         <v>0</v>
       </c>
-      <c r="CD12" s="37"/>
+      <c r="CD12" s="31"/>
       <c r="CE12">
         <v>0</v>
       </c>
       <c r="CF12">
         <v>0</v>
       </c>
-      <c r="EO12" s="26" t="s">
+      <c r="EO12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="EP12" s="26">
+      <c r="EP12" s="24">
         <v>0</v>
       </c>
-      <c r="EQ12" s="36">
+      <c r="EQ12" s="30">
         <v>0</v>
       </c>
-      <c r="FJ12" s="26" t="s">
+      <c r="FJ12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="FK12" s="26">
+      <c r="FK12" s="24">
         <v>0</v>
       </c>
-      <c r="FL12" s="36">
+      <c r="FL12" s="30">
         <v>0</v>
       </c>
     </row>
@@ -16213,10 +16158,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FR23"/>
+  <dimension ref="A1:FR22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16994,7 +16939,7 @@
       <c r="H3" s="11">
         <v>1852696</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -17015,13 +16960,13 @@
       <c r="O3" s="9">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="27">
         <v>3593115</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="28">
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -17033,454 +16978,454 @@
       <c r="U3" s="9">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="33">
+      <c r="W3" s="27">
         <v>2482905</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="28">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="33">
+      <c r="Z3" s="27">
         <v>3074236</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AA3" s="28">
         <v>3.39E-2</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="33">
+      <c r="AC3" s="27">
         <v>3295119</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3" s="28">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AF3" s="33">
+      <c r="AF3" s="27">
         <v>3458099</v>
       </c>
-      <c r="AG3" s="34">
+      <c r="AG3" s="28">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="AH3" s="23" t="s">
+      <c r="AH3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AI3" s="33">
+      <c r="AI3" s="27">
         <v>3309568</v>
       </c>
-      <c r="AJ3" s="34">
+      <c r="AJ3" s="28">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="AK3" s="23" t="s">
+      <c r="AK3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="33">
+      <c r="AL3" s="27">
         <v>3688429</v>
       </c>
-      <c r="AM3" s="34">
+      <c r="AM3" s="28">
         <v>3.15E-2</v>
       </c>
-      <c r="AN3" s="23" t="s">
+      <c r="AN3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AO3" s="33">
+      <c r="AO3" s="27">
         <v>3693246</v>
       </c>
-      <c r="AP3" s="34">
+      <c r="AP3" s="28">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="AQ3" s="23" t="s">
+      <c r="AQ3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AR3" s="33">
+      <c r="AR3" s="27">
         <v>3608362</v>
       </c>
-      <c r="AS3" s="34">
+      <c r="AS3" s="28">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="AT3" s="23" t="s">
+      <c r="AT3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AU3" s="33">
+      <c r="AU3" s="27">
         <v>4321183</v>
       </c>
-      <c r="AV3" s="34">
+      <c r="AV3" s="28">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AW3" s="23" t="s">
+      <c r="AW3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AX3" s="33">
+      <c r="AX3" s="27">
         <v>4899595</v>
       </c>
-      <c r="AY3" s="34">
+      <c r="AY3" s="28">
         <v>3.44E-2</v>
       </c>
-      <c r="AZ3" s="23" t="s">
+      <c r="AZ3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="BA3" s="33">
+      <c r="BA3" s="27">
         <v>5470017</v>
       </c>
-      <c r="BB3" s="34">
+      <c r="BB3" s="28">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="BC3" s="23" t="s">
+      <c r="BC3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BD3" s="33">
+      <c r="BD3" s="27">
         <v>4916717</v>
       </c>
-      <c r="BE3" s="34">
+      <c r="BE3" s="28">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="BF3" s="23" t="s">
+      <c r="BF3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BG3" s="33">
+      <c r="BG3" s="27">
         <v>5377094</v>
       </c>
-      <c r="BH3" s="34">
+      <c r="BH3" s="28">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="BI3" s="23" t="s">
+      <c r="BI3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BJ3" s="33">
+      <c r="BJ3" s="27">
         <v>8169841</v>
       </c>
-      <c r="BK3" s="34">
+      <c r="BK3" s="28">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="BL3" s="23" t="s">
+      <c r="BL3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BM3" s="33">
+      <c r="BM3" s="27">
         <v>9467256</v>
       </c>
-      <c r="BN3" s="34">
+      <c r="BN3" s="28">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="BO3" s="23" t="s">
+      <c r="BO3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BP3" s="33">
+      <c r="BP3" s="27">
         <v>5715438</v>
       </c>
-      <c r="BQ3" s="34">
+      <c r="BQ3" s="28">
         <v>3.85E-2</v>
       </c>
-      <c r="BR3" s="23" t="s">
+      <c r="BR3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BS3" s="33">
+      <c r="BS3" s="27">
         <v>6729213</v>
       </c>
-      <c r="BT3" s="34">
+      <c r="BT3" s="28">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="BU3" s="23" t="s">
+      <c r="BU3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BV3" s="33">
+      <c r="BV3" s="27">
         <v>8839018</v>
       </c>
-      <c r="BW3" s="34">
+      <c r="BW3" s="28">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="BX3" s="23" t="s">
+      <c r="BX3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BY3" s="33">
+      <c r="BY3" s="27">
         <v>10803979</v>
       </c>
-      <c r="BZ3" s="34">
+      <c r="BZ3" s="28">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="CA3" s="23" t="s">
+      <c r="CA3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="CB3" s="33">
+      <c r="CB3" s="27">
         <v>11016350</v>
       </c>
-      <c r="CC3" s="34">
+      <c r="CC3" s="28">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="CD3" s="23" t="s">
+      <c r="CD3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CE3" s="33">
+      <c r="CE3" s="27">
         <v>11500093</v>
       </c>
-      <c r="CF3" s="34">
+      <c r="CF3" s="28">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="CG3" s="23" t="s">
+      <c r="CG3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CH3" s="33">
+      <c r="CH3" s="27">
         <v>14438285</v>
       </c>
-      <c r="CI3" s="34">
+      <c r="CI3" s="28">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="CJ3" s="23" t="s">
+      <c r="CJ3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CK3" s="33">
+      <c r="CK3" s="27">
         <v>15957740</v>
       </c>
-      <c r="CL3" s="34">
+      <c r="CL3" s="28">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="CM3" s="23" t="s">
+      <c r="CM3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CN3" s="33">
+      <c r="CN3" s="27">
         <v>23226716</v>
       </c>
-      <c r="CO3" s="34">
+      <c r="CO3" s="28">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="CP3" s="23" t="s">
+      <c r="CP3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CQ3" s="33">
+      <c r="CQ3" s="27">
         <v>18834134</v>
       </c>
-      <c r="CR3" s="34">
+      <c r="CR3" s="28">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="CS3" s="23" t="s">
+      <c r="CS3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CT3" s="33">
+      <c r="CT3" s="27">
         <v>20313444</v>
       </c>
-      <c r="CU3" s="34">
+      <c r="CU3" s="28">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="CV3" s="23" t="s">
+      <c r="CV3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CW3" s="33">
+      <c r="CW3" s="27">
         <v>23502476</v>
       </c>
-      <c r="CX3" s="34">
+      <c r="CX3" s="28">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="CY3" s="23" t="s">
+      <c r="CY3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CZ3" s="33">
+      <c r="CZ3" s="27">
         <v>22931809</v>
       </c>
-      <c r="DA3" s="34">
+      <c r="DA3" s="28">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="DB3" s="23" t="s">
+      <c r="DB3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="DC3" s="33">
+      <c r="DC3" s="27">
         <v>13348084</v>
       </c>
-      <c r="DD3" s="34">
+      <c r="DD3" s="28">
         <v>4.41E-2</v>
       </c>
-      <c r="DE3" s="23" t="s">
+      <c r="DE3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="DF3" s="33">
+      <c r="DF3" s="27">
         <v>27931937</v>
       </c>
-      <c r="DG3" s="34">
+      <c r="DG3" s="28">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="DH3" s="23" t="s">
+      <c r="DH3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="DI3" s="33">
+      <c r="DI3" s="27">
         <v>29649334</v>
       </c>
-      <c r="DJ3" s="34">
+      <c r="DJ3" s="28">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="DK3" s="23" t="s">
+      <c r="DK3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="DL3" s="33">
+      <c r="DL3" s="27">
         <v>34559276</v>
       </c>
-      <c r="DM3" s="34">
+      <c r="DM3" s="28">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="DN3" s="23" t="s">
+      <c r="DN3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DO3" s="33">
+      <c r="DO3" s="27">
         <v>39987320</v>
       </c>
-      <c r="DP3" s="34">
+      <c r="DP3" s="28">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="DQ3" s="23" t="s">
+      <c r="DQ3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DR3" s="33">
+      <c r="DR3" s="27">
         <v>40370758</v>
       </c>
-      <c r="DS3" s="34">
+      <c r="DS3" s="28">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="DT3" s="23" t="s">
+      <c r="DT3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="DU3" s="33">
+      <c r="DU3" s="27">
         <v>46606381</v>
       </c>
-      <c r="DV3" s="34">
+      <c r="DV3" s="28">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="DW3" s="23" t="s">
+      <c r="DW3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DX3" s="33">
+      <c r="DX3" s="27">
         <v>48081185</v>
       </c>
-      <c r="DY3" s="34">
+      <c r="DY3" s="28">
         <v>4.07E-2</v>
       </c>
-      <c r="DZ3" s="23" t="s">
+      <c r="DZ3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EA3" s="33">
+      <c r="EA3" s="27">
         <v>52490192</v>
       </c>
-      <c r="EB3" s="34">
+      <c r="EB3" s="28">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="EC3" s="23" t="s">
+      <c r="EC3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="ED3" s="33">
+      <c r="ED3" s="27">
         <v>65372555</v>
       </c>
-      <c r="EE3" s="34">
+      <c r="EE3" s="28">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="EF3" s="23" t="s">
+      <c r="EF3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EG3" s="33">
+      <c r="EG3" s="27">
         <v>69920543</v>
       </c>
-      <c r="EH3" s="34">
+      <c r="EH3" s="28">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="EI3" s="23" t="s">
+      <c r="EI3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EJ3" s="33">
+      <c r="EJ3" s="27">
         <v>62433159</v>
       </c>
-      <c r="EK3" s="34">
+      <c r="EK3" s="28">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="EL3" s="23" t="s">
+      <c r="EL3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EM3" s="33">
+      <c r="EM3" s="27">
         <v>45845197</v>
       </c>
-      <c r="EN3" s="34">
+      <c r="EN3" s="28">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="EO3" s="23" t="s">
+      <c r="EO3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EP3" s="33">
+      <c r="EP3" s="27">
         <v>91482811</v>
       </c>
-      <c r="EQ3" s="34">
+      <c r="EQ3" s="28">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="ER3" s="23" t="s">
+      <c r="ER3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="ES3" s="33">
+      <c r="ES3" s="27">
         <v>80463099</v>
       </c>
-      <c r="ET3" s="34">
+      <c r="ET3" s="28">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="EU3" s="23" t="s">
+      <c r="EU3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EV3" s="33">
+      <c r="EV3" s="27">
         <v>84232672</v>
       </c>
-      <c r="EW3" s="34">
+      <c r="EW3" s="28">
         <v>4.48E-2</v>
       </c>
-      <c r="EX3" s="23" t="s">
+      <c r="EX3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="EY3" s="33">
+      <c r="EY3" s="27">
         <v>90000006</v>
       </c>
-      <c r="EZ3" s="34">
+      <c r="EZ3" s="28">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="FA3" s="23" t="s">
+      <c r="FA3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="FB3" s="33">
+      <c r="FB3" s="27">
         <v>89668880</v>
       </c>
-      <c r="FC3" s="34">
+      <c r="FC3" s="28">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="FD3" s="23" t="s">
+      <c r="FD3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="FE3" s="33">
+      <c r="FE3" s="27">
         <v>76498140</v>
       </c>
-      <c r="FF3" s="34">
+      <c r="FF3" s="28">
         <v>4.19E-2</v>
       </c>
-      <c r="FG3" s="23" t="s">
+      <c r="FG3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="FH3" s="33">
+      <c r="FH3" s="27">
         <v>102873752</v>
       </c>
-      <c r="FI3" s="34">
+      <c r="FI3" s="28">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="FJ3" s="23" t="s">
+      <c r="FJ3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="FK3" s="33">
+      <c r="FK3" s="27">
         <v>103133677</v>
       </c>
-      <c r="FL3" s="34">
+      <c r="FL3" s="28">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="FM3" s="23" t="s">
+      <c r="FM3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="FN3" s="33">
+      <c r="FN3" s="27">
         <v>174943185</v>
       </c>
-      <c r="FO3" s="34">
+      <c r="FO3" s="28">
         <v>6.6500000000000004E-2</v>
       </c>
     </row>
@@ -17716,7 +17661,7 @@
       <c r="BY4" s="13">
         <v>8039071</v>
       </c>
-      <c r="BZ4" s="35">
+      <c r="BZ4" s="29">
         <v>0.03</v>
       </c>
       <c r="CA4" s="12" t="s">
@@ -17752,7 +17697,7 @@
       <c r="CK4" s="13">
         <v>12402156</v>
       </c>
-      <c r="CL4" s="35">
+      <c r="CL4" s="29">
         <v>0.03</v>
       </c>
       <c r="CM4" s="12" t="s">
@@ -18024,7 +17969,7 @@
       <c r="H5" s="16">
         <v>1153293</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -18078,7 +18023,7 @@
       <c r="Z5" s="5">
         <v>2722272</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="AA5" s="23">
         <v>0.03</v>
       </c>
       <c r="AB5" s="4" t="s">
@@ -18447,7 +18392,7 @@
       <c r="ES5" s="5">
         <v>59998507</v>
       </c>
-      <c r="ET5" s="25">
+      <c r="ET5" s="23">
         <v>0.04</v>
       </c>
       <c r="EU5" s="4" t="s">
@@ -19054,7 +18999,7 @@
       <c r="H7" s="16">
         <v>862410</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>2.01E-2</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -20084,7 +20029,7 @@
       <c r="H9" s="16">
         <v>767482</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -21114,7 +21059,7 @@
       <c r="H11" s="16">
         <v>736725</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>1.72E-2</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -22144,7 +22089,7 @@
       <c r="H13" s="16">
         <v>671841</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -22902,7 +22847,7 @@
       <c r="CK14" s="13">
         <v>4146446</v>
       </c>
-      <c r="CL14" s="35">
+      <c r="CL14" s="29">
         <v>0.01</v>
       </c>
       <c r="CM14" s="12" t="s">
@@ -23037,7 +22982,7 @@
       <c r="ED14" s="13">
         <v>13638957</v>
       </c>
-      <c r="EE14" s="35">
+      <c r="EE14" s="29">
         <v>0.01</v>
       </c>
       <c r="EF14" s="12" t="s">
@@ -23174,7 +23119,7 @@
       <c r="H15" s="16">
         <v>539216</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <v>1.26E-2</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -23417,7 +23362,7 @@
       <c r="CK15" s="5">
         <v>4114905</v>
       </c>
-      <c r="CL15" s="25">
+      <c r="CL15" s="23">
         <v>0.01</v>
       </c>
       <c r="CM15" s="4" t="s">
@@ -24204,7 +24149,7 @@
       <c r="H17" s="16">
         <v>516564</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="22">
         <v>1.2E-2</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -24555,7 +24500,7 @@
       <c r="DU17" s="5">
         <v>10772934</v>
       </c>
-      <c r="DV17" s="25">
+      <c r="DV17" s="23">
         <v>0.01</v>
       </c>
       <c r="DW17" s="4" t="s">
@@ -25016,7 +24961,7 @@
       <c r="DC18" s="13">
         <v>3034810</v>
       </c>
-      <c r="DD18" s="35">
+      <c r="DD18" s="29">
         <v>0.01</v>
       </c>
       <c r="DE18" s="12" t="s">
@@ -25088,7 +25033,7 @@
       <c r="EA18" s="13">
         <v>12288183</v>
       </c>
-      <c r="EB18" s="35">
+      <c r="EB18" s="29">
         <v>0.01</v>
       </c>
       <c r="EC18" s="12" t="s">
@@ -25234,7 +25179,7 @@
       <c r="H19" s="16">
         <v>485200</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -25279,7 +25224,7 @@
       <c r="W19" s="5">
         <v>670210</v>
       </c>
-      <c r="X19" s="25">
+      <c r="X19" s="23">
         <v>0.01</v>
       </c>
       <c r="Y19" s="4" t="s">
@@ -26264,7 +26209,7 @@
       <c r="H21" s="16">
         <v>439434</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="22">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -26282,7 +26227,7 @@
       <c r="N21" s="5">
         <v>564645</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="23">
         <v>0.01</v>
       </c>
       <c r="P21" s="4" t="s">
@@ -26754,7 +26699,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:171" ht="42.75">
+    <row r="22" spans="1:171" ht="43.5" thickBot="1">
       <c r="A22" s="12" t="s">
         <v>132</v>
       </c>
@@ -26782,13 +26727,13 @@
       <c r="I22" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="25">
         <v>549221</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="26">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="M22" s="12" t="s">
@@ -26809,13 +26754,13 @@
       <c r="R22" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="S22" s="26" t="s">
+      <c r="S22" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="25">
         <v>757876</v>
       </c>
-      <c r="U22" s="28">
+      <c r="U22" s="26">
         <v>1.04E-2</v>
       </c>
       <c r="V22" s="12" t="s">
@@ -27267,521 +27212,6 @@
       </c>
       <c r="FO22" s="14">
         <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:171" ht="14.25">
-      <c r="A23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="18">
-        <v>23429501</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0.5736</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="18">
-        <v>24132236</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.62749999999999995</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="21">
-        <v>27764114</v>
-      </c>
-      <c r="I23" s="29">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="31">
-        <v>32429008</v>
-      </c>
-      <c r="L23" s="32">
-        <v>0.62050000000000005</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="18">
-        <v>35547326</v>
-      </c>
-      <c r="O23" s="19">
-        <v>0.62880000000000003</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>41100413</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0.54149999999999998</v>
-      </c>
-      <c r="S23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="T23" s="31">
-        <v>44959402</v>
-      </c>
-      <c r="U23" s="32">
-        <v>0.61680000000000001</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="W23" s="18">
-        <v>44355435</v>
-      </c>
-      <c r="X23" s="19">
-        <v>0.66190000000000004</v>
-      </c>
-      <c r="Y23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z23" s="18">
-        <v>56248140</v>
-      </c>
-      <c r="AA23" s="19">
-        <v>0.62039999999999995</v>
-      </c>
-      <c r="AB23" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC23" s="27">
-        <v>60355069</v>
-      </c>
-      <c r="AD23" s="28">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="AE23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF23" s="18">
-        <v>61455000</v>
-      </c>
-      <c r="AG23" s="19">
-        <v>0.6371</v>
-      </c>
-      <c r="AH23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI23" s="18">
-        <v>44457126</v>
-      </c>
-      <c r="AJ23" s="19">
-        <v>0.62760000000000005</v>
-      </c>
-      <c r="AK23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL23" s="18">
-        <v>76515329</v>
-      </c>
-      <c r="AM23" s="19">
-        <v>0.6532</v>
-      </c>
-      <c r="AN23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO23" s="18">
-        <v>68240216</v>
-      </c>
-      <c r="AP23" s="19">
-        <v>0.66449999999999998</v>
-      </c>
-      <c r="AQ23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR23" s="18">
-        <v>82557629</v>
-      </c>
-      <c r="AS23" s="19">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="AT23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU23" s="18">
-        <v>89729111</v>
-      </c>
-      <c r="AV23" s="19">
-        <v>0.68540000000000001</v>
-      </c>
-      <c r="AW23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX23" s="18">
-        <v>95590610</v>
-      </c>
-      <c r="AY23" s="19">
-        <v>0.6714</v>
-      </c>
-      <c r="AZ23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA23" s="18">
-        <v>105117759</v>
-      </c>
-      <c r="BB23" s="19">
-        <v>0.6673</v>
-      </c>
-      <c r="BC23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD23" s="18">
-        <v>105403363</v>
-      </c>
-      <c r="BE23" s="19">
-        <v>0.69879999999999998</v>
-      </c>
-      <c r="BF23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG23" s="18">
-        <v>112155592</v>
-      </c>
-      <c r="BH23" s="19">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="BI23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ23" s="18">
-        <v>151649675</v>
-      </c>
-      <c r="BK23" s="19">
-        <v>0.66659999999999997</v>
-      </c>
-      <c r="BL23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM23" s="18">
-        <v>132714675</v>
-      </c>
-      <c r="BN23" s="19">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="BO23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP23" s="18">
-        <v>97363075</v>
-      </c>
-      <c r="BQ23" s="19">
-        <v>0.65659999999999996</v>
-      </c>
-      <c r="BR23" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS23" s="27">
-        <v>117442104</v>
-      </c>
-      <c r="BT23" s="28">
-        <v>0.67520000000000002</v>
-      </c>
-      <c r="BU23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV23" s="18">
-        <v>167652614</v>
-      </c>
-      <c r="BW23" s="19">
-        <v>0.6966</v>
-      </c>
-      <c r="BX23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BY23" s="18">
-        <v>190592800</v>
-      </c>
-      <c r="BZ23" s="19">
-        <v>0.71030000000000004</v>
-      </c>
-      <c r="CA23" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="CB23" s="27">
-        <v>227431072</v>
-      </c>
-      <c r="CC23" s="28">
-        <v>0.70669999999999999</v>
-      </c>
-      <c r="CD23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CE23" s="18">
-        <v>254756902</v>
-      </c>
-      <c r="CF23" s="19">
-        <v>0.70069999999999999</v>
-      </c>
-      <c r="CG23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CH23" s="18">
-        <v>260772141</v>
-      </c>
-      <c r="CI23" s="19">
-        <v>0.69059999999999999</v>
-      </c>
-      <c r="CJ23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CK23" s="18">
-        <v>291826531</v>
-      </c>
-      <c r="CL23" s="19">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="CM23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CN23" s="18">
-        <v>331772485</v>
-      </c>
-      <c r="CO23" s="19">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="CP23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CQ23" s="18">
-        <v>359166908</v>
-      </c>
-      <c r="CR23" s="19">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="CS23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CT23" s="18">
-        <v>420017746</v>
-      </c>
-      <c r="CU23" s="19">
-        <v>0.70630000000000004</v>
-      </c>
-      <c r="CV23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CW23" s="18">
-        <v>398434480</v>
-      </c>
-      <c r="CX23" s="19">
-        <v>0.68530000000000002</v>
-      </c>
-      <c r="CY23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="CZ23" s="18">
-        <v>405617228</v>
-      </c>
-      <c r="DA23" s="19">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="DB23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DC23" s="18">
-        <v>204259448</v>
-      </c>
-      <c r="DD23" s="19">
-        <v>0.67510000000000003</v>
-      </c>
-      <c r="DE23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DF23" s="18">
-        <v>543141214</v>
-      </c>
-      <c r="DG23" s="19">
-        <v>0.69440000000000002</v>
-      </c>
-      <c r="DH23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DI23" s="18">
-        <v>481823794</v>
-      </c>
-      <c r="DJ23" s="19">
-        <v>0.6724</v>
-      </c>
-      <c r="DK23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DL23" s="18">
-        <v>538063247</v>
-      </c>
-      <c r="DM23" s="19">
-        <v>0.67369999999999997</v>
-      </c>
-      <c r="DN23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DO23" s="18">
-        <v>647534372</v>
-      </c>
-      <c r="DP23" s="19">
-        <v>0.66790000000000005</v>
-      </c>
-      <c r="DQ23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DR23" s="18">
-        <v>657815914</v>
-      </c>
-      <c r="DS23" s="19">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="DT23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DU23" s="18">
-        <v>704680526</v>
-      </c>
-      <c r="DV23" s="19">
-        <v>0.65659999999999996</v>
-      </c>
-      <c r="DW23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="DX23" s="18">
-        <v>770860831</v>
-      </c>
-      <c r="DY23" s="19">
-        <v>0.65229999999999999</v>
-      </c>
-      <c r="DZ23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="EA23" s="18">
-        <v>809893078</v>
-      </c>
-      <c r="EB23" s="19">
-        <v>0.6593</v>
-      </c>
-      <c r="EC23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="ED23" s="18">
-        <v>910103230</v>
-      </c>
-      <c r="EE23" s="19">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="EF23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="EG23" s="18">
-        <v>840255166</v>
-      </c>
-      <c r="EH23" s="19">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="EI23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="EJ23" s="18">
-        <v>828382935</v>
-      </c>
-      <c r="EK23" s="19">
-        <v>0.66059999999999997</v>
-      </c>
-      <c r="EL23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="EM23" s="18">
-        <v>519034023</v>
-      </c>
-      <c r="EN23" s="19">
-        <v>0.6341</v>
-      </c>
-      <c r="EO23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="EP23" s="18">
-        <v>1091233081</v>
-      </c>
-      <c r="EQ23" s="19">
-        <v>0.64790000000000003</v>
-      </c>
-      <c r="ER23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="ES23" s="18">
-        <v>950985307</v>
-      </c>
-      <c r="ET23" s="19">
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="EU23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="EV23" s="18">
-        <v>1275995869</v>
-      </c>
-      <c r="EW23" s="19">
-        <v>0.67910000000000004</v>
-      </c>
-      <c r="EX23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="EY23" s="18">
-        <v>1336848324</v>
-      </c>
-      <c r="EZ23" s="19">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="FA23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="FB23" s="18">
-        <v>1229815571</v>
-      </c>
-      <c r="FC23" s="19">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="FD23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="FE23" s="18">
-        <v>1284793357</v>
-      </c>
-      <c r="FF23" s="19">
-        <v>0.70330000000000004</v>
-      </c>
-      <c r="FG23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="FH23" s="18">
-        <v>1442127230</v>
-      </c>
-      <c r="FI23" s="19">
-        <v>0.67030000000000001</v>
-      </c>
-      <c r="FJ23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="FK23" s="18">
-        <v>1445453749</v>
-      </c>
-      <c r="FL23" s="19">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="FM23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="FN23" s="18">
-        <v>1667021372</v>
-      </c>
-      <c r="FO23" s="19">
-        <v>0.6341</v>
       </c>
     </row>
   </sheetData>
